--- a/Agosto/12 agosto/mante/LISTA DE ASPIRANTES_ITSMANTE_EVALUATEC_2024 - casos especiales.xlsx
+++ b/Agosto/12 agosto/mante/LISTA DE ASPIRANTES_ITSMANTE_EVALUATEC_2024 - casos especiales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIO\Documents\SEMESTRE FEB. JUL. 2024\EVALUATEC 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\12 agosto\mante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45ED9A7-1A39-47D0-BDCD-7BFB6A809E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DD578-7DF3-40D2-B205-41B641D4CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="casos especiales." sheetId="3" r:id="rId1"/>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,28 +447,38 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -500,24 +510,24 @@
     <tableColumn id="2" xr3:uid="{4B9C65F9-A75B-44B2-B75F-86ED7B42D7F6}" name="NOMBRE ASPIRANTE"/>
     <tableColumn id="3" xr3:uid="{AB67A7AE-54FD-451F-8000-0F735852F7A2}" name="CURP"/>
     <tableColumn id="4" xr3:uid="{E2994BF5-D9B1-41CE-BEAB-2FFC012FB952}" name="CORREO ELECTRONICO"/>
-    <tableColumn id="13" xr3:uid="{C30BBD41-AF81-47C2-B6F3-D6D145738756}" name="CLAVE CARRERA" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{C30BBD41-AF81-47C2-B6F3-D6D145738756}" name="CLAVE CARRERA" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{41C3C29C-EBF4-4795-A128-CDC094376A09}" name="CARRERA"/>
-    <tableColumn id="6" xr3:uid="{A02C96DC-7817-462E-B320-5BD5F6409A94}" name="VERSION" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B1801EA8-0AEC-450A-BB14-F638D83272E3}" name="FECHA CASOS ESPECIALES" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AA606ABC-37C3-4CAC-8D87-8DF5E3F5605B}" name="HORA CASOS ESPECIALES" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DBBFAD78-229D-41D1-B3A0-02A11FFF9000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{39739A93-26B3-4510-986E-10CD39DA1C9A}" name="HORA APLICACIÓN OFICIAL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{E169B5FA-B2ED-4276-BE30-5E0322E66F49}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{AA45597F-7D58-4F8E-89A0-2534457CD889}" name="AULA" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A02C96DC-7817-462E-B320-5BD5F6409A94}" name="VERSION" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B1801EA8-0AEC-450A-BB14-F638D83272E3}" name="FECHA CASOS ESPECIALES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AA606ABC-37C3-4CAC-8D87-8DF5E3F5605B}" name="HORA CASOS ESPECIALES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{DBBFAD78-229D-41D1-B3A0-02A11FFF9000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{39739A93-26B3-4510-986E-10CD39DA1C9A}" name="HORA APLICACIÓN OFICIAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{E169B5FA-B2ED-4276-BE30-5E0322E66F49}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{AA45597F-7D58-4F8E-89A0-2534457CD889}" name="AULA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,11 +826,11 @@
   </sheetPr>
   <dimension ref="A1:O694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.625" bestFit="1" customWidth="1"/>
@@ -838,7 +848,7 @@
     <col min="14" max="14" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -879,7 +889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -916,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
@@ -953,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21.75" customHeight="1">
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1039,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="16"/>
       <c r="C15" s="3"/>
@@ -1377,7 +1387,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="16"/>
       <c r="C16" s="3"/>
@@ -1392,7 +1402,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="16"/>
       <c r="C17" s="3"/>
@@ -1407,7 +1417,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
       <c r="C18" s="3"/>
@@ -1422,7 +1432,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
       <c r="C19" s="3"/>
@@ -1437,7 +1447,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
       <c r="C20" s="3"/>
@@ -1452,7 +1462,7 @@
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="16"/>
       <c r="C21" s="3"/>
@@ -1467,7 +1477,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="16"/>
       <c r="C22" s="3"/>
@@ -1482,7 +1492,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="16"/>
       <c r="C23" s="3"/>
@@ -1497,7 +1507,7 @@
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="16"/>
       <c r="C24" s="3"/>
@@ -1512,7 +1522,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="16"/>
       <c r="C25" s="3"/>
@@ -1527,7 +1537,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="16"/>
       <c r="C26" s="3"/>
@@ -1542,7 +1552,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="16"/>
       <c r="C27" s="3"/>
@@ -1557,7 +1567,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="16"/>
       <c r="C28" s="3"/>
@@ -1572,7 +1582,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="16"/>
       <c r="C29" s="3"/>
@@ -1587,7 +1597,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="16"/>
       <c r="C30" s="3"/>
@@ -1602,7 +1612,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="16"/>
       <c r="C31" s="3"/>
@@ -1617,7 +1627,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="16"/>
       <c r="C32" s="3"/>
@@ -1632,7 +1642,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="16"/>
       <c r="C33" s="3"/>
@@ -1647,7 +1657,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="16"/>
       <c r="C34" s="3"/>
@@ -1662,7 +1672,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="16"/>
       <c r="C35" s="3"/>
@@ -1677,7 +1687,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="16"/>
       <c r="C36" s="3"/>
@@ -1692,7 +1702,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="16"/>
       <c r="C37" s="3"/>
@@ -1707,7 +1717,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="16"/>
       <c r="C38" s="3"/>
@@ -1722,7 +1732,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="16"/>
       <c r="C39" s="3"/>
@@ -1737,7 +1747,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="16"/>
       <c r="C40" s="3"/>
@@ -1752,7 +1762,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="16"/>
       <c r="C41" s="3"/>
@@ -1767,7 +1777,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="16"/>
       <c r="C42" s="3"/>
@@ -1782,7 +1792,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="16"/>
       <c r="C43" s="3"/>
@@ -1797,7 +1807,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="16"/>
       <c r="C44" s="3"/>
@@ -1812,7 +1822,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1">
+    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="16"/>
       <c r="C45" s="3"/>
@@ -1827,7 +1837,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
       <c r="C46" s="3"/>
@@ -1842,7 +1852,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
       <c r="C47" s="3"/>
@@ -1857,7 +1867,7 @@
       <c r="L47" s="14"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
       <c r="C48" s="3"/>
@@ -1872,7 +1882,7 @@
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
       <c r="C49" s="3"/>
@@ -1887,7 +1897,7 @@
       <c r="L49" s="14"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
       <c r="C50" s="3"/>
@@ -1902,7 +1912,7 @@
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
       <c r="C51" s="3"/>
@@ -1917,7 +1927,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="3"/>
@@ -1932,7 +1942,7 @@
       <c r="L52" s="14"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="3"/>
@@ -1947,7 +1957,7 @@
       <c r="L53" s="14"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
       <c r="C54" s="3"/>
@@ -1962,7 +1972,7 @@
       <c r="L54" s="14"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="3"/>
@@ -1977,7 +1987,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="16"/>
       <c r="C56" s="3"/>
@@ -1992,7 +2002,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="16"/>
       <c r="C57" s="3"/>
@@ -2007,7 +2017,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="16"/>
       <c r="C58" s="3"/>
@@ -2022,7 +2032,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="16"/>
       <c r="C59" s="3"/>
@@ -2037,7 +2047,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="16"/>
       <c r="C60" s="3"/>
@@ -2052,7 +2062,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="16"/>
       <c r="C61" s="3"/>
@@ -2067,7 +2077,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="16"/>
       <c r="C62" s="3"/>
@@ -2082,7 +2092,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="16"/>
       <c r="C63" s="3"/>
@@ -2097,7 +2107,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="16"/>
       <c r="C64" s="3"/>
@@ -2112,7 +2122,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="16"/>
       <c r="C65" s="3"/>
@@ -2127,7 +2137,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="16"/>
       <c r="C66" s="3"/>
@@ -2142,7 +2152,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="16"/>
       <c r="C67" s="3"/>
@@ -2157,7 +2167,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="16"/>
       <c r="C68" s="3"/>
@@ -2172,7 +2182,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="16"/>
       <c r="C69" s="3"/>
@@ -2187,7 +2197,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="16"/>
       <c r="C70" s="3"/>
@@ -2202,7 +2212,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="16"/>
       <c r="C71" s="3"/>
@@ -2217,7 +2227,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="16"/>
       <c r="C72" s="3"/>
@@ -2232,7 +2242,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="16"/>
       <c r="C73" s="3"/>
@@ -2247,7 +2257,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" spans="1:14" ht="17.25">
+    <row r="74" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="16"/>
       <c r="C74" s="3"/>
@@ -2265,7 +2275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="16"/>
       <c r="C75" s="3"/>
@@ -2280,7 +2290,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="15"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="16"/>
       <c r="C76" s="3"/>
@@ -2295,7 +2305,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="15"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="16"/>
       <c r="C77" s="3"/>
@@ -2310,7 +2320,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="15"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="16"/>
       <c r="C78" s="3"/>
@@ -2325,7 +2335,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="15"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="16"/>
       <c r="C79" s="3"/>
@@ -2340,7 +2350,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="15"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="16"/>
       <c r="C80" s="3"/>
@@ -2355,7 +2365,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="15"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="16"/>
       <c r="C81" s="3"/>
@@ -2370,7 +2380,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="15"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="16"/>
       <c r="C82" s="3"/>
@@ -2385,7 +2395,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="16"/>
       <c r="C83" s="3"/>
@@ -2400,7 +2410,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="15"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="16"/>
       <c r="C84" s="3"/>
@@ -2415,7 +2425,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="16"/>
       <c r="C85" s="3"/>
@@ -2430,7 +2440,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="15"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="16"/>
       <c r="C86" s="3"/>
@@ -2445,7 +2455,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="16"/>
       <c r="C87" s="3"/>
@@ -2460,7 +2470,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="15"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="16"/>
       <c r="C88" s="3"/>
@@ -2475,7 +2485,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="15"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="16"/>
       <c r="C89" s="3"/>
@@ -2490,7 +2500,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="15"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="16"/>
       <c r="C90" s="3"/>
@@ -2505,7 +2515,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="15"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="16"/>
       <c r="C91" s="3"/>
@@ -2520,7 +2530,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="15"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="16"/>
       <c r="C92" s="3"/>
@@ -2535,7 +2545,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="15"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="16"/>
       <c r="C93" s="3"/>
@@ -2550,7 +2560,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="15"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="16"/>
       <c r="C94" s="3"/>
@@ -2565,7 +2575,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="15"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="16"/>
       <c r="C95" s="3"/>
@@ -2580,7 +2590,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="15"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="16"/>
       <c r="C96" s="3"/>
@@ -2595,7 +2605,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="15"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="16"/>
       <c r="C97" s="3"/>
@@ -2610,7 +2620,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="15"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="16"/>
       <c r="C98" s="3"/>
@@ -2625,7 +2635,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="15"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="16"/>
       <c r="C99" s="3"/>
@@ -2640,7 +2650,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="15"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="16"/>
       <c r="C100" s="3"/>
@@ -2655,7 +2665,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="15"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="16"/>
       <c r="C101" s="3"/>
@@ -2670,7 +2680,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="15"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="16"/>
       <c r="C102" s="3"/>
@@ -2685,7 +2695,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="15"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="16"/>
       <c r="C103" s="3"/>
@@ -2700,7 +2710,7 @@
       <c r="L103" s="14"/>
       <c r="M103" s="15"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="16"/>
       <c r="C104" s="3"/>
@@ -2715,7 +2725,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="15"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="16"/>
       <c r="C105" s="3"/>
@@ -2730,7 +2740,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="15"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="16"/>
       <c r="C106" s="3"/>
@@ -2745,7 +2755,7 @@
       <c r="L106" s="14"/>
       <c r="M106" s="15"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="16"/>
       <c r="C107" s="3"/>
@@ -2760,7 +2770,7 @@
       <c r="L107" s="14"/>
       <c r="M107" s="15"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="16"/>
       <c r="C108" s="3"/>
@@ -2775,7 +2785,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="15"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="16"/>
       <c r="C109" s="3"/>
@@ -2790,7 +2800,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="15"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="16"/>
       <c r="C110" s="3"/>
@@ -2805,7 +2815,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="15"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="16"/>
       <c r="C111" s="3"/>
@@ -2820,7 +2830,7 @@
       <c r="L111" s="14"/>
       <c r="M111" s="15"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="16"/>
       <c r="C112" s="3"/>
@@ -2835,7 +2845,7 @@
       <c r="L112" s="14"/>
       <c r="M112" s="15"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="16"/>
       <c r="C113" s="3"/>
@@ -2850,7 +2860,7 @@
       <c r="L113" s="14"/>
       <c r="M113" s="15"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="16"/>
       <c r="C114" s="3"/>
@@ -2865,7 +2875,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="15"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="16"/>
       <c r="C115" s="3"/>
@@ -2880,7 +2890,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="15"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="16"/>
       <c r="C116" s="3"/>
@@ -2895,7 +2905,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="15"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="16"/>
       <c r="C117" s="3"/>
@@ -2910,7 +2920,7 @@
       <c r="L117" s="14"/>
       <c r="M117" s="15"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="16"/>
       <c r="C118" s="3"/>
@@ -2925,7 +2935,7 @@
       <c r="L118" s="14"/>
       <c r="M118" s="15"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="16"/>
       <c r="C119" s="3"/>
@@ -2940,7 +2950,7 @@
       <c r="L119" s="14"/>
       <c r="M119" s="15"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="16"/>
       <c r="C120" s="3"/>
@@ -2955,7 +2965,7 @@
       <c r="L120" s="14"/>
       <c r="M120" s="15"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="16"/>
       <c r="C121" s="3"/>
@@ -2970,7 +2980,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="15"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="16"/>
       <c r="C122" s="3"/>
@@ -2985,7 +2995,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="15"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="16"/>
       <c r="C123" s="3"/>
@@ -3000,7 +3010,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="15"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="16"/>
       <c r="C124" s="3"/>
@@ -3015,7 +3025,7 @@
       <c r="L124" s="14"/>
       <c r="M124" s="15"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="16"/>
       <c r="C125" s="3"/>
@@ -3030,7 +3040,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="15"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="16"/>
       <c r="C126" s="3"/>
@@ -3045,7 +3055,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="15"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="16"/>
       <c r="C127" s="3"/>
@@ -3060,7 +3070,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="15"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="16"/>
       <c r="C128" s="3"/>
@@ -3075,7 +3085,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="15"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="16"/>
       <c r="C129" s="3"/>
@@ -3090,7 +3100,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="15"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="16"/>
       <c r="C130" s="3"/>
@@ -3105,7 +3115,7 @@
       <c r="L130" s="14"/>
       <c r="M130" s="15"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="16"/>
       <c r="C131" s="3"/>
@@ -3120,7 +3130,7 @@
       <c r="L131" s="14"/>
       <c r="M131" s="15"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="16"/>
       <c r="C132" s="3"/>
@@ -3135,7 +3145,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="15"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="16"/>
       <c r="C133" s="3"/>
@@ -3150,7 +3160,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="15"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="16"/>
       <c r="C134" s="3"/>
@@ -3165,7 +3175,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="15"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="16"/>
       <c r="C135" s="3"/>
@@ -3180,7 +3190,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="15"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="16"/>
       <c r="C136" s="3"/>
@@ -3195,7 +3205,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="15"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="16"/>
       <c r="C137" s="3"/>
@@ -3210,7 +3220,7 @@
       <c r="L137" s="14"/>
       <c r="M137" s="15"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="16"/>
       <c r="C138" s="3"/>
@@ -3225,7 +3235,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="15"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="16"/>
       <c r="C139" s="3"/>
@@ -3240,7 +3250,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="15"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="16"/>
       <c r="C140" s="3"/>
@@ -3255,7 +3265,7 @@
       <c r="L140" s="14"/>
       <c r="M140" s="15"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="16"/>
       <c r="C141" s="3"/>
@@ -3270,7 +3280,7 @@
       <c r="L141" s="14"/>
       <c r="M141" s="15"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="16"/>
       <c r="C142" s="3"/>
@@ -3285,7 +3295,7 @@
       <c r="L142" s="14"/>
       <c r="M142" s="15"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="16"/>
       <c r="C143" s="3"/>
@@ -3300,7 +3310,7 @@
       <c r="L143" s="14"/>
       <c r="M143" s="15"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="16"/>
       <c r="C144" s="3"/>
@@ -3315,7 +3325,7 @@
       <c r="L144" s="14"/>
       <c r="M144" s="15"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="16"/>
       <c r="C145" s="3"/>
@@ -3330,7 +3340,7 @@
       <c r="L145" s="14"/>
       <c r="M145" s="15"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="16"/>
       <c r="C146" s="3"/>
@@ -3345,7 +3355,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="15"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="16"/>
       <c r="C147" s="3"/>
@@ -3360,7 +3370,7 @@
       <c r="L147" s="14"/>
       <c r="M147" s="15"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="16"/>
       <c r="C148" s="3"/>
@@ -3375,7 +3385,7 @@
       <c r="L148" s="14"/>
       <c r="M148" s="15"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="16"/>
       <c r="C149" s="3"/>
@@ -3390,7 +3400,7 @@
       <c r="L149" s="14"/>
       <c r="M149" s="15"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="16"/>
       <c r="C150" s="3"/>
@@ -3405,7 +3415,7 @@
       <c r="L150" s="14"/>
       <c r="M150" s="15"/>
     </row>
-    <row r="151" spans="1:14" ht="17.25">
+    <row r="151" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="16"/>
       <c r="C151" s="3"/>
@@ -3423,7 +3433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="16"/>
       <c r="C152" s="3"/>
@@ -3438,7 +3448,7 @@
       <c r="L152" s="14"/>
       <c r="M152" s="15"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="16"/>
       <c r="C153" s="3"/>
@@ -3453,7 +3463,7 @@
       <c r="L153" s="14"/>
       <c r="M153" s="15"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="16"/>
       <c r="C154" s="3"/>
@@ -3468,7 +3478,7 @@
       <c r="L154" s="14"/>
       <c r="M154" s="15"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="16"/>
       <c r="C155" s="3"/>
@@ -3483,7 +3493,7 @@
       <c r="L155" s="14"/>
       <c r="M155" s="15"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="16"/>
       <c r="C156" s="3"/>
@@ -3498,7 +3508,7 @@
       <c r="L156" s="14"/>
       <c r="M156" s="15"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="16"/>
       <c r="C157" s="3"/>
@@ -3513,7 +3523,7 @@
       <c r="L157" s="14"/>
       <c r="M157" s="15"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="16"/>
       <c r="C158" s="3"/>
@@ -3528,7 +3538,7 @@
       <c r="L158" s="14"/>
       <c r="M158" s="15"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="16"/>
       <c r="C159" s="3"/>
@@ -3543,7 +3553,7 @@
       <c r="L159" s="14"/>
       <c r="M159" s="15"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="16"/>
       <c r="C160" s="3"/>
@@ -3558,7 +3568,7 @@
       <c r="L160" s="14"/>
       <c r="M160" s="15"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="16"/>
       <c r="C161" s="3"/>
@@ -3573,7 +3583,7 @@
       <c r="L161" s="14"/>
       <c r="M161" s="15"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="16"/>
       <c r="C162" s="3"/>
@@ -3588,7 +3598,7 @@
       <c r="L162" s="14"/>
       <c r="M162" s="15"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="16"/>
       <c r="C163" s="3"/>
@@ -3603,7 +3613,7 @@
       <c r="L163" s="14"/>
       <c r="M163" s="15"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="16"/>
       <c r="C164" s="3"/>
@@ -3618,7 +3628,7 @@
       <c r="L164" s="14"/>
       <c r="M164" s="15"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="16"/>
       <c r="C165" s="3"/>
@@ -3633,7 +3643,7 @@
       <c r="L165" s="14"/>
       <c r="M165" s="15"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="16"/>
       <c r="C166" s="3"/>
@@ -3648,7 +3658,7 @@
       <c r="L166" s="14"/>
       <c r="M166" s="15"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="16"/>
       <c r="C167" s="3"/>
@@ -3663,7 +3673,7 @@
       <c r="L167" s="14"/>
       <c r="M167" s="15"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="16"/>
       <c r="C168" s="3"/>
@@ -3678,7 +3688,7 @@
       <c r="L168" s="14"/>
       <c r="M168" s="15"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="16"/>
       <c r="C169" s="3"/>
@@ -3693,7 +3703,7 @@
       <c r="L169" s="14"/>
       <c r="M169" s="15"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="16"/>
       <c r="C170" s="3"/>
@@ -3708,7 +3718,7 @@
       <c r="L170" s="14"/>
       <c r="M170" s="15"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="16"/>
       <c r="C171" s="3"/>
@@ -3723,7 +3733,7 @@
       <c r="L171" s="14"/>
       <c r="M171" s="15"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="16"/>
       <c r="C172" s="3"/>
@@ -3738,7 +3748,7 @@
       <c r="L172" s="14"/>
       <c r="M172" s="15"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="16"/>
       <c r="C173" s="3"/>
@@ -3753,7 +3763,7 @@
       <c r="L173" s="14"/>
       <c r="M173" s="15"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="16"/>
       <c r="C174" s="3"/>
@@ -3768,7 +3778,7 @@
       <c r="L174" s="14"/>
       <c r="M174" s="15"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="16"/>
       <c r="C175" s="3"/>
@@ -3783,7 +3793,7 @@
       <c r="L175" s="14"/>
       <c r="M175" s="15"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="16"/>
       <c r="C176" s="3"/>
@@ -3798,7 +3808,7 @@
       <c r="L176" s="14"/>
       <c r="M176" s="15"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="16"/>
       <c r="C177" s="3"/>
@@ -3813,7 +3823,7 @@
       <c r="L177" s="14"/>
       <c r="M177" s="15"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="16"/>
       <c r="C178" s="3"/>
@@ -3828,7 +3838,7 @@
       <c r="L178" s="14"/>
       <c r="M178" s="15"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="16"/>
       <c r="C179" s="3"/>
@@ -3843,7 +3853,7 @@
       <c r="L179" s="14"/>
       <c r="M179" s="15"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="16"/>
       <c r="C180" s="3"/>
@@ -3858,7 +3868,7 @@
       <c r="L180" s="14"/>
       <c r="M180" s="15"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="16"/>
       <c r="C181" s="3"/>
@@ -3873,7 +3883,7 @@
       <c r="L181" s="14"/>
       <c r="M181" s="15"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="16"/>
       <c r="C182" s="3"/>
@@ -3888,7 +3898,7 @@
       <c r="L182" s="14"/>
       <c r="M182" s="15"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="16"/>
       <c r="C183" s="3"/>
@@ -3903,7 +3913,7 @@
       <c r="L183" s="14"/>
       <c r="M183" s="15"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="16"/>
       <c r="C184" s="3"/>
@@ -3918,7 +3928,7 @@
       <c r="L184" s="14"/>
       <c r="M184" s="15"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="16"/>
       <c r="C185" s="3"/>
@@ -3933,7 +3943,7 @@
       <c r="L185" s="14"/>
       <c r="M185" s="15"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="16"/>
       <c r="C186" s="3"/>
@@ -3948,7 +3958,7 @@
       <c r="L186" s="14"/>
       <c r="M186" s="15"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="16"/>
       <c r="C187" s="3"/>
@@ -3963,7 +3973,7 @@
       <c r="L187" s="14"/>
       <c r="M187" s="15"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="16"/>
       <c r="C188" s="3"/>
@@ -3978,7 +3988,7 @@
       <c r="L188" s="14"/>
       <c r="M188" s="15"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="16"/>
       <c r="C189" s="3"/>
@@ -3993,7 +4003,7 @@
       <c r="L189" s="14"/>
       <c r="M189" s="15"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="16"/>
       <c r="C190" s="3"/>
@@ -4008,7 +4018,7 @@
       <c r="L190" s="14"/>
       <c r="M190" s="15"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="16"/>
       <c r="C191" s="3"/>
@@ -4023,7 +4033,7 @@
       <c r="L191" s="14"/>
       <c r="M191" s="15"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="16"/>
       <c r="C192" s="3"/>
@@ -4038,7 +4048,7 @@
       <c r="L192" s="14"/>
       <c r="M192" s="15"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="16"/>
       <c r="C193" s="3"/>
@@ -4053,7 +4063,7 @@
       <c r="L193" s="14"/>
       <c r="M193" s="15"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="16"/>
       <c r="C194" s="3"/>
@@ -4068,7 +4078,7 @@
       <c r="L194" s="14"/>
       <c r="M194" s="15"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="16"/>
       <c r="C195" s="3"/>
@@ -4083,7 +4093,7 @@
       <c r="L195" s="14"/>
       <c r="M195" s="15"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="16"/>
       <c r="C196" s="3"/>
@@ -4098,7 +4108,7 @@
       <c r="L196" s="14"/>
       <c r="M196" s="15"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="16"/>
       <c r="C197" s="3"/>
@@ -4113,7 +4123,7 @@
       <c r="L197" s="14"/>
       <c r="M197" s="15"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="16"/>
       <c r="C198" s="3"/>
@@ -4128,7 +4138,7 @@
       <c r="L198" s="14"/>
       <c r="M198" s="15"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="16"/>
       <c r="C199" s="3"/>
@@ -4143,7 +4153,7 @@
       <c r="L199" s="14"/>
       <c r="M199" s="15"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="16"/>
       <c r="C200" s="3"/>
@@ -4158,7 +4168,7 @@
       <c r="L200" s="14"/>
       <c r="M200" s="15"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="16"/>
       <c r="C201" s="3"/>
@@ -4173,7 +4183,7 @@
       <c r="L201" s="14"/>
       <c r="M201" s="15"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="16"/>
       <c r="C202" s="3"/>
@@ -4188,7 +4198,7 @@
       <c r="L202" s="14"/>
       <c r="M202" s="15"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="16"/>
       <c r="C203" s="3"/>
@@ -4203,7 +4213,7 @@
       <c r="L203" s="14"/>
       <c r="M203" s="15"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="16"/>
       <c r="C204" s="3"/>
@@ -4218,7 +4228,7 @@
       <c r="L204" s="14"/>
       <c r="M204" s="15"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="16"/>
       <c r="C205" s="3"/>
@@ -4233,7 +4243,7 @@
       <c r="L205" s="14"/>
       <c r="M205" s="15"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="16"/>
       <c r="C206" s="3"/>
@@ -4248,7 +4258,7 @@
       <c r="L206" s="14"/>
       <c r="M206" s="15"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="16"/>
       <c r="C207" s="3"/>
@@ -4263,7 +4273,7 @@
       <c r="L207" s="14"/>
       <c r="M207" s="15"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="16"/>
       <c r="C208" s="3"/>
@@ -4278,7 +4288,7 @@
       <c r="L208" s="14"/>
       <c r="M208" s="15"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="16"/>
       <c r="C209" s="3"/>
@@ -4293,7 +4303,7 @@
       <c r="L209" s="14"/>
       <c r="M209" s="15"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="16"/>
       <c r="C210" s="3"/>
@@ -4308,7 +4318,7 @@
       <c r="L210" s="14"/>
       <c r="M210" s="15"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="16"/>
       <c r="C211" s="3"/>
@@ -4323,7 +4333,7 @@
       <c r="L211" s="14"/>
       <c r="M211" s="15"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B212" s="18"/>
       <c r="E212" s="19"/>
       <c r="F212" s="18"/>
@@ -4335,7 +4345,7 @@
       <c r="L212" s="25"/>
       <c r="M212" s="20"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B213" s="18"/>
       <c r="E213" s="19"/>
       <c r="F213" s="18"/>
@@ -4347,7 +4357,7 @@
       <c r="L213" s="25"/>
       <c r="M213" s="20"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B214" s="18"/>
       <c r="E214" s="19"/>
       <c r="F214" s="18"/>
@@ -4359,7 +4369,7 @@
       <c r="L214" s="25"/>
       <c r="M214" s="20"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
       <c r="E215" s="19"/>
       <c r="F215" s="18"/>
@@ -4371,7 +4381,7 @@
       <c r="L215" s="25"/>
       <c r="M215" s="20"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
       <c r="E216" s="24"/>
       <c r="F216" s="20"/>
@@ -4383,7 +4393,7 @@
       <c r="L216" s="25"/>
       <c r="M216" s="20"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
       <c r="E217" s="24"/>
       <c r="F217" s="20"/>
@@ -4395,7 +4405,7 @@
       <c r="L217" s="25"/>
       <c r="M217" s="20"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B218" s="18"/>
       <c r="E218" s="24"/>
       <c r="F218" s="20"/>
@@ -4407,7 +4417,7 @@
       <c r="L218" s="25"/>
       <c r="M218" s="20"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B219" s="18"/>
       <c r="E219" s="24"/>
       <c r="F219" s="20"/>
@@ -4419,7 +4429,7 @@
       <c r="L219" s="25"/>
       <c r="M219" s="20"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
       <c r="E220" s="24"/>
       <c r="F220" s="20"/>
@@ -4431,7 +4441,7 @@
       <c r="L220" s="25"/>
       <c r="M220" s="20"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B221" s="18"/>
       <c r="E221" s="24"/>
       <c r="F221" s="20"/>
@@ -4443,7 +4453,7 @@
       <c r="L221" s="25"/>
       <c r="M221" s="20"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B222" s="20"/>
       <c r="E222" s="24"/>
       <c r="F222" s="20"/>
@@ -4455,7 +4465,7 @@
       <c r="L222" s="25"/>
       <c r="M222" s="20"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="18"/>
       <c r="E223" s="24"/>
       <c r="F223" s="20"/>
@@ -4467,7 +4477,7 @@
       <c r="L223" s="25"/>
       <c r="M223" s="20"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B224" s="18"/>
       <c r="E224" s="24"/>
       <c r="F224" s="20"/>
@@ -4479,7 +4489,7 @@
       <c r="L224" s="25"/>
       <c r="M224" s="20"/>
     </row>
-    <row r="225" spans="2:13">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="18"/>
       <c r="E225" s="24"/>
       <c r="F225" s="20"/>
@@ -4491,7 +4501,7 @@
       <c r="L225" s="25"/>
       <c r="M225" s="20"/>
     </row>
-    <row r="226" spans="2:13">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B226" s="18"/>
       <c r="E226" s="24"/>
       <c r="F226" s="20"/>
@@ -4503,7 +4513,7 @@
       <c r="L226" s="25"/>
       <c r="M226" s="20"/>
     </row>
-    <row r="227" spans="2:13">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B227" s="18"/>
       <c r="E227" s="24"/>
       <c r="F227" s="20"/>
@@ -4515,7 +4525,7 @@
       <c r="L227" s="25"/>
       <c r="M227" s="20"/>
     </row>
-    <row r="228" spans="2:13">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
       <c r="E228" s="24"/>
       <c r="F228" s="20"/>
@@ -4527,7 +4537,7 @@
       <c r="L228" s="25"/>
       <c r="M228" s="20"/>
     </row>
-    <row r="229" spans="2:13">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
       <c r="E229" s="24"/>
       <c r="F229" s="20"/>
@@ -4539,7 +4549,7 @@
       <c r="L229" s="25"/>
       <c r="M229" s="20"/>
     </row>
-    <row r="230" spans="2:13">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="18"/>
       <c r="E230" s="24"/>
       <c r="F230" s="20"/>
@@ -4551,7 +4561,7 @@
       <c r="L230" s="25"/>
       <c r="M230" s="20"/>
     </row>
-    <row r="231" spans="2:13">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="18"/>
       <c r="E231" s="24"/>
       <c r="F231" s="20"/>
@@ -4563,7 +4573,7 @@
       <c r="L231" s="25"/>
       <c r="M231" s="20"/>
     </row>
-    <row r="232" spans="2:13">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="18"/>
       <c r="E232" s="24"/>
       <c r="F232" s="20"/>
@@ -4575,7 +4585,7 @@
       <c r="L232" s="25"/>
       <c r="M232" s="20"/>
     </row>
-    <row r="233" spans="2:13">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B233" s="18"/>
       <c r="E233" s="24"/>
       <c r="F233" s="20"/>
@@ -4587,7 +4597,7 @@
       <c r="L233" s="25"/>
       <c r="M233" s="20"/>
     </row>
-    <row r="234" spans="2:13">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B234" s="18"/>
       <c r="E234" s="24"/>
       <c r="F234" s="20"/>
@@ -4599,7 +4609,7 @@
       <c r="L234" s="25"/>
       <c r="M234" s="20"/>
     </row>
-    <row r="235" spans="2:13">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="18"/>
       <c r="E235" s="24"/>
       <c r="F235" s="20"/>
@@ -4611,7 +4621,7 @@
       <c r="L235" s="25"/>
       <c r="M235" s="20"/>
     </row>
-    <row r="236" spans="2:13">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
       <c r="E236" s="24"/>
       <c r="F236" s="20"/>
@@ -4623,7 +4633,7 @@
       <c r="L236" s="25"/>
       <c r="M236" s="20"/>
     </row>
-    <row r="237" spans="2:13">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
       <c r="E237" s="24"/>
       <c r="F237" s="20"/>
@@ -4635,7 +4645,7 @@
       <c r="L237" s="25"/>
       <c r="M237" s="20"/>
     </row>
-    <row r="238" spans="2:13">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
       <c r="E238" s="24"/>
       <c r="F238" s="20"/>
@@ -4647,7 +4657,7 @@
       <c r="L238" s="25"/>
       <c r="M238" s="20"/>
     </row>
-    <row r="239" spans="2:13">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
       <c r="E239" s="24"/>
       <c r="F239" s="20"/>
@@ -4659,7 +4669,7 @@
       <c r="L239" s="25"/>
       <c r="M239" s="20"/>
     </row>
-    <row r="240" spans="2:13">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="18"/>
       <c r="E240" s="24"/>
       <c r="F240" s="20"/>
@@ -4671,7 +4681,7 @@
       <c r="L240" s="25"/>
       <c r="M240" s="20"/>
     </row>
-    <row r="241" spans="2:13">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B241" s="18"/>
       <c r="E241" s="24"/>
       <c r="F241" s="20"/>
@@ -4683,7 +4693,7 @@
       <c r="L241" s="25"/>
       <c r="M241" s="20"/>
     </row>
-    <row r="242" spans="2:13">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
       <c r="E242" s="24"/>
       <c r="F242" s="20"/>
@@ -4695,7 +4705,7 @@
       <c r="L242" s="25"/>
       <c r="M242" s="20"/>
     </row>
-    <row r="243" spans="2:13">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B243" s="18"/>
       <c r="E243" s="24"/>
       <c r="F243" s="20"/>
@@ -4707,7 +4717,7 @@
       <c r="L243" s="25"/>
       <c r="M243" s="20"/>
     </row>
-    <row r="244" spans="2:13">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="18"/>
       <c r="E244" s="24"/>
       <c r="F244" s="20"/>
@@ -4719,7 +4729,7 @@
       <c r="L244" s="25"/>
       <c r="M244" s="20"/>
     </row>
-    <row r="245" spans="2:13">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B245" s="18"/>
       <c r="E245" s="24"/>
       <c r="F245" s="20"/>
@@ -4731,7 +4741,7 @@
       <c r="L245" s="25"/>
       <c r="M245" s="20"/>
     </row>
-    <row r="246" spans="2:13">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
       <c r="E246" s="24"/>
       <c r="F246" s="20"/>
@@ -4743,7 +4753,7 @@
       <c r="L246" s="25"/>
       <c r="M246" s="20"/>
     </row>
-    <row r="247" spans="2:13">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
       <c r="E247" s="24"/>
       <c r="F247" s="20"/>
@@ -4755,7 +4765,7 @@
       <c r="L247" s="25"/>
       <c r="M247" s="20"/>
     </row>
-    <row r="248" spans="2:13">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
       <c r="E248" s="24"/>
       <c r="F248" s="20"/>
@@ -4767,7 +4777,7 @@
       <c r="L248" s="25"/>
       <c r="M248" s="20"/>
     </row>
-    <row r="249" spans="2:13">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B249" s="18"/>
       <c r="E249" s="24"/>
       <c r="F249" s="20"/>
@@ -4779,7 +4789,7 @@
       <c r="L249" s="25"/>
       <c r="M249" s="20"/>
     </row>
-    <row r="250" spans="2:13">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B250" s="18"/>
       <c r="E250" s="24"/>
       <c r="F250" s="20"/>
@@ -4791,7 +4801,7 @@
       <c r="L250" s="25"/>
       <c r="M250" s="20"/>
     </row>
-    <row r="251" spans="2:13">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B251" s="18"/>
       <c r="E251" s="24"/>
       <c r="F251" s="20"/>
@@ -4803,7 +4813,7 @@
       <c r="L251" s="25"/>
       <c r="M251" s="20"/>
     </row>
-    <row r="252" spans="2:13">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B252" s="18"/>
       <c r="E252" s="24"/>
       <c r="F252" s="20"/>
@@ -4815,7 +4825,7 @@
       <c r="L252" s="25"/>
       <c r="M252" s="20"/>
     </row>
-    <row r="253" spans="2:13">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B253" s="18"/>
       <c r="E253" s="24"/>
       <c r="F253" s="20"/>
@@ -4827,7 +4837,7 @@
       <c r="L253" s="25"/>
       <c r="M253" s="20"/>
     </row>
-    <row r="254" spans="2:13">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B254" s="18"/>
       <c r="E254" s="24"/>
       <c r="F254" s="20"/>
@@ -4839,7 +4849,7 @@
       <c r="L254" s="25"/>
       <c r="M254" s="20"/>
     </row>
-    <row r="255" spans="2:13">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B255" s="18"/>
       <c r="E255" s="24"/>
       <c r="F255" s="20"/>
@@ -4851,7 +4861,7 @@
       <c r="L255" s="25"/>
       <c r="M255" s="20"/>
     </row>
-    <row r="256" spans="2:13">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="18"/>
       <c r="E256" s="24"/>
       <c r="F256" s="20"/>
@@ -4863,7 +4873,7 @@
       <c r="L256" s="25"/>
       <c r="M256" s="20"/>
     </row>
-    <row r="257" spans="2:13">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="18"/>
       <c r="E257" s="24"/>
       <c r="F257" s="20"/>
@@ -4875,7 +4885,7 @@
       <c r="L257" s="25"/>
       <c r="M257" s="20"/>
     </row>
-    <row r="258" spans="2:13">
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B258" s="18"/>
       <c r="E258" s="24"/>
       <c r="F258" s="20"/>
@@ -4887,7 +4897,7 @@
       <c r="L258" s="25"/>
       <c r="M258" s="20"/>
     </row>
-    <row r="259" spans="2:13">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B259" s="18"/>
       <c r="E259" s="24"/>
       <c r="F259" s="20"/>
@@ -4899,7 +4909,7 @@
       <c r="L259" s="25"/>
       <c r="M259" s="20"/>
     </row>
-    <row r="260" spans="2:13">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
       <c r="E260" s="24"/>
       <c r="F260" s="20"/>
@@ -4911,7 +4921,7 @@
       <c r="L260" s="25"/>
       <c r="M260" s="20"/>
     </row>
-    <row r="261" spans="2:13">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
       <c r="E261" s="24"/>
       <c r="F261" s="20"/>
@@ -4923,7 +4933,7 @@
       <c r="L261" s="25"/>
       <c r="M261" s="20"/>
     </row>
-    <row r="262" spans="2:13">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
       <c r="E262" s="24"/>
       <c r="F262" s="20"/>
@@ -4935,7 +4945,7 @@
       <c r="L262" s="25"/>
       <c r="M262" s="20"/>
     </row>
-    <row r="263" spans="2:13">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
       <c r="E263" s="24"/>
       <c r="F263" s="20"/>
@@ -4947,7 +4957,7 @@
       <c r="L263" s="25"/>
       <c r="M263" s="20"/>
     </row>
-    <row r="264" spans="2:13">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
       <c r="E264" s="24"/>
       <c r="F264" s="20"/>
@@ -4959,7 +4969,7 @@
       <c r="L264" s="25"/>
       <c r="M264" s="20"/>
     </row>
-    <row r="265" spans="2:13">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
       <c r="E265" s="24"/>
       <c r="F265" s="20"/>
@@ -4971,7 +4981,7 @@
       <c r="L265" s="25"/>
       <c r="M265" s="20"/>
     </row>
-    <row r="266" spans="2:13">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B266" s="18"/>
       <c r="E266" s="24"/>
       <c r="F266" s="20"/>
@@ -4983,7 +4993,7 @@
       <c r="L266" s="25"/>
       <c r="M266" s="20"/>
     </row>
-    <row r="267" spans="2:13">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B267" s="18"/>
       <c r="E267" s="24"/>
       <c r="F267" s="20"/>
@@ -4995,7 +5005,7 @@
       <c r="L267" s="25"/>
       <c r="M267" s="20"/>
     </row>
-    <row r="268" spans="2:13">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B268" s="18"/>
       <c r="E268" s="24"/>
       <c r="F268" s="20"/>
@@ -5007,7 +5017,7 @@
       <c r="L268" s="25"/>
       <c r="M268" s="20"/>
     </row>
-    <row r="269" spans="2:13">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
       <c r="E269" s="24"/>
       <c r="F269" s="20"/>
@@ -5019,7 +5029,7 @@
       <c r="L269" s="25"/>
       <c r="M269" s="20"/>
     </row>
-    <row r="270" spans="2:13">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B270" s="20"/>
       <c r="E270" s="24"/>
       <c r="F270" s="20"/>
@@ -5031,7 +5041,7 @@
       <c r="L270" s="25"/>
       <c r="M270" s="20"/>
     </row>
-    <row r="271" spans="2:13">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
       <c r="E271" s="24"/>
       <c r="F271" s="20"/>
@@ -5043,7 +5053,7 @@
       <c r="L271" s="25"/>
       <c r="M271" s="20"/>
     </row>
-    <row r="272" spans="2:13">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
       <c r="E272" s="24"/>
       <c r="F272" s="20"/>
@@ -5055,7 +5065,7 @@
       <c r="L272" s="25"/>
       <c r="M272" s="20"/>
     </row>
-    <row r="273" spans="2:13">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
       <c r="E273" s="24"/>
       <c r="F273" s="20"/>
@@ -5067,7 +5077,7 @@
       <c r="L273" s="25"/>
       <c r="M273" s="20"/>
     </row>
-    <row r="274" spans="2:13">
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B274" s="18"/>
       <c r="E274" s="24"/>
       <c r="F274" s="20"/>
@@ -5079,7 +5089,7 @@
       <c r="L274" s="25"/>
       <c r="M274" s="20"/>
     </row>
-    <row r="275" spans="2:13">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B275" s="18"/>
       <c r="E275" s="24"/>
       <c r="F275" s="20"/>
@@ -5091,7 +5101,7 @@
       <c r="L275" s="25"/>
       <c r="M275" s="20"/>
     </row>
-    <row r="276" spans="2:13">
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B276" s="18"/>
       <c r="E276" s="24"/>
       <c r="F276" s="20"/>
@@ -5103,7 +5113,7 @@
       <c r="L276" s="25"/>
       <c r="M276" s="20"/>
     </row>
-    <row r="277" spans="2:13">
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
       <c r="E277" s="24"/>
       <c r="F277" s="20"/>
@@ -5115,7 +5125,7 @@
       <c r="L277" s="25"/>
       <c r="M277" s="20"/>
     </row>
-    <row r="278" spans="2:13">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
       <c r="E278" s="24"/>
       <c r="F278" s="20"/>
@@ -5127,7 +5137,7 @@
       <c r="L278" s="25"/>
       <c r="M278" s="20"/>
     </row>
-    <row r="279" spans="2:13">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
       <c r="E279" s="24"/>
       <c r="F279" s="20"/>
@@ -5139,7 +5149,7 @@
       <c r="L279" s="25"/>
       <c r="M279" s="20"/>
     </row>
-    <row r="280" spans="2:13">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
       <c r="E280" s="24"/>
       <c r="F280" s="20"/>
@@ -5151,7 +5161,7 @@
       <c r="L280" s="25"/>
       <c r="M280" s="20"/>
     </row>
-    <row r="281" spans="2:13">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
       <c r="E281" s="24"/>
       <c r="F281" s="20"/>
@@ -5163,7 +5173,7 @@
       <c r="L281" s="25"/>
       <c r="M281" s="20"/>
     </row>
-    <row r="282" spans="2:13">
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="18"/>
       <c r="E282" s="24"/>
       <c r="F282" s="20"/>
@@ -5175,7 +5185,7 @@
       <c r="L282" s="25"/>
       <c r="M282" s="20"/>
     </row>
-    <row r="283" spans="2:13">
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B283" s="18"/>
       <c r="E283" s="24"/>
       <c r="F283" s="20"/>
@@ -5187,7 +5197,7 @@
       <c r="L283" s="25"/>
       <c r="M283" s="20"/>
     </row>
-    <row r="284" spans="2:13">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B284" s="18"/>
       <c r="E284" s="24"/>
       <c r="F284" s="20"/>
@@ -5199,7 +5209,7 @@
       <c r="L284" s="25"/>
       <c r="M284" s="20"/>
     </row>
-    <row r="285" spans="2:13">
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
       <c r="E285" s="24"/>
       <c r="F285" s="20"/>
@@ -5211,7 +5221,7 @@
       <c r="L285" s="25"/>
       <c r="M285" s="20"/>
     </row>
-    <row r="286" spans="2:13">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
       <c r="E286" s="24"/>
       <c r="F286" s="20"/>
@@ -5223,7 +5233,7 @@
       <c r="L286" s="25"/>
       <c r="M286" s="20"/>
     </row>
-    <row r="287" spans="2:13">
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
       <c r="E287" s="24"/>
       <c r="F287" s="20"/>
@@ -5235,7 +5245,7 @@
       <c r="L287" s="25"/>
       <c r="M287" s="20"/>
     </row>
-    <row r="288" spans="2:13">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
       <c r="E288" s="24"/>
       <c r="F288" s="20"/>
@@ -5247,7 +5257,7 @@
       <c r="L288" s="25"/>
       <c r="M288" s="20"/>
     </row>
-    <row r="289" spans="2:13">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
       <c r="E289" s="24"/>
       <c r="F289" s="20"/>
@@ -5259,7 +5269,7 @@
       <c r="L289" s="25"/>
       <c r="M289" s="20"/>
     </row>
-    <row r="290" spans="2:13">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E290" s="24"/>
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
@@ -5270,7 +5280,7 @@
       <c r="L290" s="25"/>
       <c r="M290" s="26"/>
     </row>
-    <row r="291" spans="2:13">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E291" s="24"/>
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
@@ -5281,7 +5291,7 @@
       <c r="L291" s="25"/>
       <c r="M291" s="26"/>
     </row>
-    <row r="292" spans="2:13">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E292" s="24"/>
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
@@ -5292,7 +5302,7 @@
       <c r="L292" s="25"/>
       <c r="M292" s="26"/>
     </row>
-    <row r="293" spans="2:13">
+    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E293" s="24"/>
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
@@ -5303,7 +5313,7 @@
       <c r="L293" s="25"/>
       <c r="M293" s="26"/>
     </row>
-    <row r="294" spans="2:13">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E294" s="24"/>
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
@@ -5314,7 +5324,7 @@
       <c r="L294" s="25"/>
       <c r="M294" s="26"/>
     </row>
-    <row r="295" spans="2:13">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E295" s="24"/>
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
@@ -5325,7 +5335,7 @@
       <c r="L295" s="25"/>
       <c r="M295" s="26"/>
     </row>
-    <row r="296" spans="2:13">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E296" s="24"/>
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
@@ -5336,7 +5346,7 @@
       <c r="L296" s="25"/>
       <c r="M296" s="26"/>
     </row>
-    <row r="297" spans="2:13">
+    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E297" s="24"/>
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
@@ -5347,7 +5357,7 @@
       <c r="L297" s="25"/>
       <c r="M297" s="26"/>
     </row>
-    <row r="298" spans="2:13">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E298" s="24"/>
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
@@ -5358,7 +5368,7 @@
       <c r="L298" s="25"/>
       <c r="M298" s="26"/>
     </row>
-    <row r="299" spans="2:13">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E299" s="24"/>
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
@@ -5369,7 +5379,7 @@
       <c r="L299" s="25"/>
       <c r="M299" s="26"/>
     </row>
-    <row r="300" spans="2:13">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E300" s="24"/>
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
@@ -5380,7 +5390,7 @@
       <c r="L300" s="25"/>
       <c r="M300" s="26"/>
     </row>
-    <row r="301" spans="2:13">
+    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E301" s="24"/>
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
@@ -5391,7 +5401,7 @@
       <c r="L301" s="25"/>
       <c r="M301" s="26"/>
     </row>
-    <row r="302" spans="2:13">
+    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E302" s="24"/>
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
@@ -5402,7 +5412,7 @@
       <c r="L302" s="25"/>
       <c r="M302" s="26"/>
     </row>
-    <row r="303" spans="2:13">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G303" s="20"/>
       <c r="H303" s="21"/>
       <c r="I303" s="22"/>
@@ -5411,7 +5421,7 @@
       <c r="L303" s="25"/>
       <c r="M303" s="26"/>
     </row>
-    <row r="304" spans="2:13">
+    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G304" s="20"/>
       <c r="H304" s="21"/>
       <c r="I304" s="22"/>
@@ -5420,7 +5430,7 @@
       <c r="L304" s="25"/>
       <c r="M304" s="26"/>
     </row>
-    <row r="305" spans="7:13">
+    <row r="305" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G305" s="20"/>
       <c r="H305" s="21"/>
       <c r="I305" s="22"/>
@@ -5429,7 +5439,7 @@
       <c r="L305" s="25"/>
       <c r="M305" s="26"/>
     </row>
-    <row r="306" spans="7:13">
+    <row r="306" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G306" s="20"/>
       <c r="H306" s="21"/>
       <c r="I306" s="22"/>
@@ -5438,7 +5448,7 @@
       <c r="L306" s="25"/>
       <c r="M306" s="26"/>
     </row>
-    <row r="307" spans="7:13">
+    <row r="307" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G307" s="20"/>
       <c r="H307" s="21"/>
       <c r="I307" s="22"/>
@@ -5447,7 +5457,7 @@
       <c r="L307" s="25"/>
       <c r="M307" s="26"/>
     </row>
-    <row r="308" spans="7:13">
+    <row r="308" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G308" s="20"/>
       <c r="H308" s="21"/>
       <c r="I308" s="22"/>
@@ -5456,7 +5466,7 @@
       <c r="L308" s="25"/>
       <c r="M308" s="26"/>
     </row>
-    <row r="309" spans="7:13">
+    <row r="309" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G309" s="20"/>
       <c r="H309" s="21"/>
       <c r="I309" s="22"/>
@@ -5465,7 +5475,7 @@
       <c r="L309" s="25"/>
       <c r="M309" s="26"/>
     </row>
-    <row r="310" spans="7:13">
+    <row r="310" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G310" s="20"/>
       <c r="H310" s="21"/>
       <c r="I310" s="22"/>
@@ -5474,7 +5484,7 @@
       <c r="L310" s="25"/>
       <c r="M310" s="26"/>
     </row>
-    <row r="311" spans="7:13">
+    <row r="311" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G311" s="20"/>
       <c r="H311" s="21"/>
       <c r="I311" s="22"/>
@@ -5483,7 +5493,7 @@
       <c r="L311" s="25"/>
       <c r="M311" s="26"/>
     </row>
-    <row r="312" spans="7:13">
+    <row r="312" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G312" s="20"/>
       <c r="H312" s="21"/>
       <c r="I312" s="22"/>
@@ -5492,7 +5502,7 @@
       <c r="L312" s="25"/>
       <c r="M312" s="26"/>
     </row>
-    <row r="313" spans="7:13">
+    <row r="313" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G313" s="20"/>
       <c r="H313" s="21"/>
       <c r="I313" s="22"/>
@@ -5501,7 +5511,7 @@
       <c r="L313" s="25"/>
       <c r="M313" s="26"/>
     </row>
-    <row r="314" spans="7:13">
+    <row r="314" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G314" s="20"/>
       <c r="H314" s="21"/>
       <c r="I314" s="22"/>
@@ -5510,7 +5520,7 @@
       <c r="L314" s="25"/>
       <c r="M314" s="26"/>
     </row>
-    <row r="315" spans="7:13">
+    <row r="315" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G315" s="20"/>
       <c r="H315" s="21"/>
       <c r="I315" s="22"/>
@@ -5519,7 +5529,7 @@
       <c r="L315" s="25"/>
       <c r="M315" s="26"/>
     </row>
-    <row r="316" spans="7:13">
+    <row r="316" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G316" s="20"/>
       <c r="H316" s="21"/>
       <c r="I316" s="22"/>
@@ -5528,7 +5538,7 @@
       <c r="L316" s="25"/>
       <c r="M316" s="26"/>
     </row>
-    <row r="317" spans="7:13">
+    <row r="317" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G317" s="20"/>
       <c r="H317" s="21"/>
       <c r="I317" s="22"/>
@@ -5537,7 +5547,7 @@
       <c r="L317" s="25"/>
       <c r="M317" s="26"/>
     </row>
-    <row r="318" spans="7:13">
+    <row r="318" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G318" s="20"/>
       <c r="H318" s="21"/>
       <c r="I318" s="22"/>
@@ -5546,7 +5556,7 @@
       <c r="L318" s="25"/>
       <c r="M318" s="26"/>
     </row>
-    <row r="319" spans="7:13">
+    <row r="319" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G319" s="20"/>
       <c r="H319" s="21"/>
       <c r="I319" s="22"/>
@@ -5555,7 +5565,7 @@
       <c r="L319" s="25"/>
       <c r="M319" s="26"/>
     </row>
-    <row r="320" spans="7:13">
+    <row r="320" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G320" s="20"/>
       <c r="H320" s="21"/>
       <c r="I320" s="22"/>
@@ -5564,7 +5574,7 @@
       <c r="L320" s="25"/>
       <c r="M320" s="26"/>
     </row>
-    <row r="321" spans="7:13">
+    <row r="321" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G321" s="20"/>
       <c r="H321" s="21"/>
       <c r="I321" s="22"/>
@@ -5573,7 +5583,7 @@
       <c r="L321" s="25"/>
       <c r="M321" s="26"/>
     </row>
-    <row r="322" spans="7:13">
+    <row r="322" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G322" s="20"/>
       <c r="H322" s="21"/>
       <c r="I322" s="22"/>
@@ -5582,7 +5592,7 @@
       <c r="L322" s="25"/>
       <c r="M322" s="26"/>
     </row>
-    <row r="323" spans="7:13">
+    <row r="323" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G323" s="20"/>
       <c r="H323" s="21"/>
       <c r="I323" s="22"/>
@@ -5591,7 +5601,7 @@
       <c r="L323" s="25"/>
       <c r="M323" s="26"/>
     </row>
-    <row r="324" spans="7:13">
+    <row r="324" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G324" s="20"/>
       <c r="H324" s="21"/>
       <c r="I324" s="22"/>
@@ -5600,7 +5610,7 @@
       <c r="L324" s="25"/>
       <c r="M324" s="26"/>
     </row>
-    <row r="325" spans="7:13">
+    <row r="325" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G325" s="20"/>
       <c r="H325" s="21"/>
       <c r="I325" s="22"/>
@@ -5609,7 +5619,7 @@
       <c r="L325" s="25"/>
       <c r="M325" s="26"/>
     </row>
-    <row r="326" spans="7:13">
+    <row r="326" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G326" s="20"/>
       <c r="H326" s="21"/>
       <c r="I326" s="22"/>
@@ -5618,7 +5628,7 @@
       <c r="L326" s="25"/>
       <c r="M326" s="26"/>
     </row>
-    <row r="327" spans="7:13">
+    <row r="327" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G327" s="20"/>
       <c r="H327" s="21"/>
       <c r="I327" s="22"/>
@@ -5627,7 +5637,7 @@
       <c r="L327" s="25"/>
       <c r="M327" s="26"/>
     </row>
-    <row r="328" spans="7:13">
+    <row r="328" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G328" s="20"/>
       <c r="H328" s="21"/>
       <c r="I328" s="22"/>
@@ -5636,7 +5646,7 @@
       <c r="L328" s="25"/>
       <c r="M328" s="26"/>
     </row>
-    <row r="329" spans="7:13">
+    <row r="329" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G329" s="20"/>
       <c r="H329" s="21"/>
       <c r="I329" s="22"/>
@@ -5645,7 +5655,7 @@
       <c r="L329" s="25"/>
       <c r="M329" s="26"/>
     </row>
-    <row r="330" spans="7:13">
+    <row r="330" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G330" s="20"/>
       <c r="H330" s="21"/>
       <c r="I330" s="22"/>
@@ -5654,7 +5664,7 @@
       <c r="L330" s="25"/>
       <c r="M330" s="26"/>
     </row>
-    <row r="331" spans="7:13">
+    <row r="331" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G331" s="20"/>
       <c r="H331" s="21"/>
       <c r="I331" s="22"/>
@@ -5663,7 +5673,7 @@
       <c r="L331" s="25"/>
       <c r="M331" s="26"/>
     </row>
-    <row r="332" spans="7:13">
+    <row r="332" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G332" s="20"/>
       <c r="H332" s="21"/>
       <c r="I332" s="22"/>
@@ -5672,7 +5682,7 @@
       <c r="L332" s="25"/>
       <c r="M332" s="26"/>
     </row>
-    <row r="333" spans="7:13">
+    <row r="333" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G333" s="20"/>
       <c r="H333" s="21"/>
       <c r="I333" s="22"/>
@@ -5681,7 +5691,7 @@
       <c r="L333" s="25"/>
       <c r="M333" s="26"/>
     </row>
-    <row r="334" spans="7:13">
+    <row r="334" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G334" s="20"/>
       <c r="H334" s="21"/>
       <c r="I334" s="22"/>
@@ -5690,7 +5700,7 @@
       <c r="L334" s="25"/>
       <c r="M334" s="26"/>
     </row>
-    <row r="335" spans="7:13">
+    <row r="335" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G335" s="20"/>
       <c r="H335" s="21"/>
       <c r="I335" s="22"/>
@@ -5699,7 +5709,7 @@
       <c r="L335" s="25"/>
       <c r="M335" s="26"/>
     </row>
-    <row r="336" spans="7:13">
+    <row r="336" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G336" s="20"/>
       <c r="H336" s="21"/>
       <c r="I336" s="22"/>
@@ -5708,7 +5718,7 @@
       <c r="L336" s="25"/>
       <c r="M336" s="26"/>
     </row>
-    <row r="337" spans="7:13">
+    <row r="337" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G337" s="20"/>
       <c r="H337" s="21"/>
       <c r="I337" s="22"/>
@@ -5717,7 +5727,7 @@
       <c r="L337" s="25"/>
       <c r="M337" s="26"/>
     </row>
-    <row r="338" spans="7:13">
+    <row r="338" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G338" s="20"/>
       <c r="H338" s="21"/>
       <c r="I338" s="22"/>
@@ -5726,7 +5736,7 @@
       <c r="L338" s="25"/>
       <c r="M338" s="26"/>
     </row>
-    <row r="339" spans="7:13">
+    <row r="339" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G339" s="20"/>
       <c r="H339" s="21"/>
       <c r="I339" s="22"/>
@@ -5735,7 +5745,7 @@
       <c r="L339" s="25"/>
       <c r="M339" s="26"/>
     </row>
-    <row r="340" spans="7:13">
+    <row r="340" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G340" s="20"/>
       <c r="H340" s="21"/>
       <c r="I340" s="22"/>
@@ -5744,7 +5754,7 @@
       <c r="L340" s="25"/>
       <c r="M340" s="26"/>
     </row>
-    <row r="341" spans="7:13">
+    <row r="341" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G341" s="20"/>
       <c r="H341" s="21"/>
       <c r="I341" s="22"/>
@@ -5753,7 +5763,7 @@
       <c r="L341" s="25"/>
       <c r="M341" s="26"/>
     </row>
-    <row r="342" spans="7:13">
+    <row r="342" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G342" s="20"/>
       <c r="H342" s="21"/>
       <c r="I342" s="22"/>
@@ -5762,7 +5772,7 @@
       <c r="L342" s="25"/>
       <c r="M342" s="26"/>
     </row>
-    <row r="343" spans="7:13">
+    <row r="343" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G343" s="20"/>
       <c r="H343" s="21"/>
       <c r="I343" s="22"/>
@@ -5771,7 +5781,7 @@
       <c r="L343" s="25"/>
       <c r="M343" s="26"/>
     </row>
-    <row r="344" spans="7:13">
+    <row r="344" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G344" s="20"/>
       <c r="H344" s="21"/>
       <c r="I344" s="22"/>
@@ -5780,7 +5790,7 @@
       <c r="L344" s="25"/>
       <c r="M344" s="26"/>
     </row>
-    <row r="345" spans="7:13">
+    <row r="345" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G345" s="20"/>
       <c r="H345" s="21"/>
       <c r="I345" s="22"/>
@@ -5789,7 +5799,7 @@
       <c r="L345" s="25"/>
       <c r="M345" s="26"/>
     </row>
-    <row r="346" spans="7:13">
+    <row r="346" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G346" s="20"/>
       <c r="H346" s="21"/>
       <c r="I346" s="22"/>
@@ -5798,7 +5808,7 @@
       <c r="L346" s="25"/>
       <c r="M346" s="26"/>
     </row>
-    <row r="347" spans="7:13">
+    <row r="347" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G347" s="20"/>
       <c r="H347" s="21"/>
       <c r="I347" s="22"/>
@@ -5807,7 +5817,7 @@
       <c r="L347" s="25"/>
       <c r="M347" s="26"/>
     </row>
-    <row r="348" spans="7:13">
+    <row r="348" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G348" s="20"/>
       <c r="H348" s="21"/>
       <c r="I348" s="22"/>
@@ -5816,7 +5826,7 @@
       <c r="L348" s="25"/>
       <c r="M348" s="26"/>
     </row>
-    <row r="349" spans="7:13">
+    <row r="349" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G349" s="20"/>
       <c r="H349" s="21"/>
       <c r="I349" s="22"/>
@@ -5825,7 +5835,7 @@
       <c r="L349" s="25"/>
       <c r="M349" s="26"/>
     </row>
-    <row r="350" spans="7:13">
+    <row r="350" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G350" s="20"/>
       <c r="H350" s="21"/>
       <c r="I350" s="22"/>
@@ -5834,7 +5844,7 @@
       <c r="L350" s="25"/>
       <c r="M350" s="26"/>
     </row>
-    <row r="351" spans="7:13">
+    <row r="351" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G351" s="20"/>
       <c r="H351" s="21"/>
       <c r="I351" s="22"/>
@@ -5843,7 +5853,7 @@
       <c r="L351" s="25"/>
       <c r="M351" s="26"/>
     </row>
-    <row r="352" spans="7:13">
+    <row r="352" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G352" s="20"/>
       <c r="H352" s="21"/>
       <c r="I352" s="22"/>
@@ -5852,7 +5862,7 @@
       <c r="L352" s="25"/>
       <c r="M352" s="26"/>
     </row>
-    <row r="353" spans="7:13">
+    <row r="353" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G353" s="20"/>
       <c r="H353" s="21"/>
       <c r="I353" s="22"/>
@@ -5861,7 +5871,7 @@
       <c r="L353" s="25"/>
       <c r="M353" s="26"/>
     </row>
-    <row r="354" spans="7:13">
+    <row r="354" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G354" s="20"/>
       <c r="H354" s="21"/>
       <c r="I354" s="22"/>
@@ -5870,7 +5880,7 @@
       <c r="L354" s="25"/>
       <c r="M354" s="26"/>
     </row>
-    <row r="355" spans="7:13">
+    <row r="355" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G355" s="20"/>
       <c r="H355" s="21"/>
       <c r="I355" s="22"/>
@@ -5879,7 +5889,7 @@
       <c r="L355" s="25"/>
       <c r="M355" s="26"/>
     </row>
-    <row r="356" spans="7:13">
+    <row r="356" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G356" s="20"/>
       <c r="H356" s="21"/>
       <c r="I356" s="22"/>
@@ -5888,7 +5898,7 @@
       <c r="L356" s="25"/>
       <c r="M356" s="26"/>
     </row>
-    <row r="357" spans="7:13">
+    <row r="357" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G357" s="20"/>
       <c r="H357" s="21"/>
       <c r="I357" s="22"/>
@@ -5897,7 +5907,7 @@
       <c r="L357" s="25"/>
       <c r="M357" s="26"/>
     </row>
-    <row r="358" spans="7:13">
+    <row r="358" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G358" s="20"/>
       <c r="H358" s="21"/>
       <c r="I358" s="22"/>
@@ -5906,7 +5916,7 @@
       <c r="L358" s="25"/>
       <c r="M358" s="26"/>
     </row>
-    <row r="359" spans="7:13">
+    <row r="359" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G359" s="20"/>
       <c r="H359" s="21"/>
       <c r="I359" s="22"/>
@@ -5915,7 +5925,7 @@
       <c r="L359" s="25"/>
       <c r="M359" s="26"/>
     </row>
-    <row r="360" spans="7:13">
+    <row r="360" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G360" s="20"/>
       <c r="H360" s="21"/>
       <c r="I360" s="22"/>
@@ -5924,7 +5934,7 @@
       <c r="L360" s="25"/>
       <c r="M360" s="26"/>
     </row>
-    <row r="361" spans="7:13">
+    <row r="361" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G361" s="20"/>
       <c r="H361" s="21"/>
       <c r="I361" s="22"/>
@@ -5933,7 +5943,7 @@
       <c r="L361" s="25"/>
       <c r="M361" s="26"/>
     </row>
-    <row r="362" spans="7:13">
+    <row r="362" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G362" s="20"/>
       <c r="H362" s="21"/>
       <c r="I362" s="22"/>
@@ -5942,7 +5952,7 @@
       <c r="L362" s="25"/>
       <c r="M362" s="26"/>
     </row>
-    <row r="363" spans="7:13">
+    <row r="363" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G363" s="20"/>
       <c r="H363" s="21"/>
       <c r="I363" s="22"/>
@@ -5951,7 +5961,7 @@
       <c r="L363" s="25"/>
       <c r="M363" s="26"/>
     </row>
-    <row r="364" spans="7:13">
+    <row r="364" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G364" s="20"/>
       <c r="H364" s="21"/>
       <c r="I364" s="22"/>
@@ -5960,7 +5970,7 @@
       <c r="L364" s="25"/>
       <c r="M364" s="26"/>
     </row>
-    <row r="365" spans="7:13">
+    <row r="365" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G365" s="20"/>
       <c r="H365" s="21"/>
       <c r="I365" s="22"/>
@@ -5969,7 +5979,7 @@
       <c r="L365" s="25"/>
       <c r="M365" s="26"/>
     </row>
-    <row r="366" spans="7:13">
+    <row r="366" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G366" s="20"/>
       <c r="H366" s="21"/>
       <c r="I366" s="22"/>
@@ -5978,7 +5988,7 @@
       <c r="L366" s="25"/>
       <c r="M366" s="26"/>
     </row>
-    <row r="367" spans="7:13">
+    <row r="367" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G367" s="20"/>
       <c r="H367" s="21"/>
       <c r="I367" s="22"/>
@@ -5987,7 +5997,7 @@
       <c r="L367" s="25"/>
       <c r="M367" s="26"/>
     </row>
-    <row r="368" spans="7:13">
+    <row r="368" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G368" s="20"/>
       <c r="H368" s="21"/>
       <c r="I368" s="22"/>
@@ -5996,7 +6006,7 @@
       <c r="L368" s="25"/>
       <c r="M368" s="26"/>
     </row>
-    <row r="369" spans="7:13">
+    <row r="369" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G369" s="20"/>
       <c r="H369" s="21"/>
       <c r="I369" s="22"/>
@@ -6005,7 +6015,7 @@
       <c r="L369" s="25"/>
       <c r="M369" s="26"/>
     </row>
-    <row r="370" spans="7:13">
+    <row r="370" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G370" s="20"/>
       <c r="H370" s="21"/>
       <c r="I370" s="22"/>
@@ -6014,7 +6024,7 @@
       <c r="L370" s="25"/>
       <c r="M370" s="26"/>
     </row>
-    <row r="371" spans="7:13">
+    <row r="371" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G371" s="20"/>
       <c r="H371" s="21"/>
       <c r="I371" s="22"/>
@@ -6023,7 +6033,7 @@
       <c r="L371" s="25"/>
       <c r="M371" s="26"/>
     </row>
-    <row r="372" spans="7:13">
+    <row r="372" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G372" s="20"/>
       <c r="H372" s="21"/>
       <c r="I372" s="22"/>
@@ -6032,7 +6042,7 @@
       <c r="L372" s="25"/>
       <c r="M372" s="26"/>
     </row>
-    <row r="373" spans="7:13">
+    <row r="373" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G373" s="20"/>
       <c r="H373" s="21"/>
       <c r="I373" s="22"/>
@@ -6041,7 +6051,7 @@
       <c r="L373" s="25"/>
       <c r="M373" s="26"/>
     </row>
-    <row r="374" spans="7:13">
+    <row r="374" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G374" s="20"/>
       <c r="H374" s="21"/>
       <c r="I374" s="22"/>
@@ -6050,7 +6060,7 @@
       <c r="L374" s="25"/>
       <c r="M374" s="26"/>
     </row>
-    <row r="375" spans="7:13">
+    <row r="375" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G375" s="20"/>
       <c r="H375" s="21"/>
       <c r="I375" s="22"/>
@@ -6059,7 +6069,7 @@
       <c r="L375" s="25"/>
       <c r="M375" s="26"/>
     </row>
-    <row r="376" spans="7:13">
+    <row r="376" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G376" s="20"/>
       <c r="H376" s="21"/>
       <c r="I376" s="22"/>
@@ -6068,7 +6078,7 @@
       <c r="L376" s="25"/>
       <c r="M376" s="26"/>
     </row>
-    <row r="377" spans="7:13">
+    <row r="377" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G377" s="20"/>
       <c r="H377" s="21"/>
       <c r="I377" s="22"/>
@@ -6077,7 +6087,7 @@
       <c r="L377" s="25"/>
       <c r="M377" s="26"/>
     </row>
-    <row r="378" spans="7:13">
+    <row r="378" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G378" s="20"/>
       <c r="H378" s="21"/>
       <c r="I378" s="22"/>
@@ -6086,7 +6096,7 @@
       <c r="L378" s="25"/>
       <c r="M378" s="26"/>
     </row>
-    <row r="379" spans="7:13">
+    <row r="379" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G379" s="20"/>
       <c r="H379" s="21"/>
       <c r="I379" s="22"/>
@@ -6095,7 +6105,7 @@
       <c r="L379" s="25"/>
       <c r="M379" s="26"/>
     </row>
-    <row r="380" spans="7:13">
+    <row r="380" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G380" s="20"/>
       <c r="H380" s="21"/>
       <c r="I380" s="22"/>
@@ -6104,7 +6114,7 @@
       <c r="L380" s="25"/>
       <c r="M380" s="26"/>
     </row>
-    <row r="381" spans="7:13">
+    <row r="381" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G381" s="20"/>
       <c r="H381" s="21"/>
       <c r="I381" s="22"/>
@@ -6113,7 +6123,7 @@
       <c r="L381" s="25"/>
       <c r="M381" s="26"/>
     </row>
-    <row r="382" spans="7:13">
+    <row r="382" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G382" s="20"/>
       <c r="H382" s="21"/>
       <c r="I382" s="22"/>
@@ -6122,7 +6132,7 @@
       <c r="L382" s="25"/>
       <c r="M382" s="26"/>
     </row>
-    <row r="383" spans="7:13">
+    <row r="383" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G383" s="20"/>
       <c r="H383" s="21"/>
       <c r="I383" s="22"/>
@@ -6131,7 +6141,7 @@
       <c r="L383" s="25"/>
       <c r="M383" s="26"/>
     </row>
-    <row r="384" spans="7:13">
+    <row r="384" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G384" s="20"/>
       <c r="H384" s="21"/>
       <c r="I384" s="22"/>
@@ -6140,7 +6150,7 @@
       <c r="L384" s="25"/>
       <c r="M384" s="26"/>
     </row>
-    <row r="385" spans="7:13">
+    <row r="385" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G385" s="20"/>
       <c r="H385" s="21"/>
       <c r="I385" s="22"/>
@@ -6149,7 +6159,7 @@
       <c r="L385" s="25"/>
       <c r="M385" s="26"/>
     </row>
-    <row r="386" spans="7:13">
+    <row r="386" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G386" s="20"/>
       <c r="H386" s="21"/>
       <c r="I386" s="22"/>
@@ -6158,7 +6168,7 @@
       <c r="L386" s="25"/>
       <c r="M386" s="26"/>
     </row>
-    <row r="387" spans="7:13">
+    <row r="387" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G387" s="20"/>
       <c r="H387" s="21"/>
       <c r="I387" s="22"/>
@@ -6167,7 +6177,7 @@
       <c r="L387" s="25"/>
       <c r="M387" s="26"/>
     </row>
-    <row r="388" spans="7:13">
+    <row r="388" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G388" s="20"/>
       <c r="H388" s="21"/>
       <c r="I388" s="22"/>
@@ -6176,7 +6186,7 @@
       <c r="L388" s="25"/>
       <c r="M388" s="26"/>
     </row>
-    <row r="389" spans="7:13">
+    <row r="389" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G389" s="20"/>
       <c r="H389" s="21"/>
       <c r="I389" s="22"/>
@@ -6185,7 +6195,7 @@
       <c r="L389" s="25"/>
       <c r="M389" s="26"/>
     </row>
-    <row r="390" spans="7:13">
+    <row r="390" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G390" s="20"/>
       <c r="H390" s="21"/>
       <c r="I390" s="22"/>
@@ -6194,7 +6204,7 @@
       <c r="L390" s="25"/>
       <c r="M390" s="26"/>
     </row>
-    <row r="391" spans="7:13">
+    <row r="391" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G391" s="20"/>
       <c r="H391" s="21"/>
       <c r="I391" s="22"/>
@@ -6203,7 +6213,7 @@
       <c r="L391" s="25"/>
       <c r="M391" s="26"/>
     </row>
-    <row r="392" spans="7:13">
+    <row r="392" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G392" s="20"/>
       <c r="H392" s="21"/>
       <c r="I392" s="22"/>
@@ -6212,7 +6222,7 @@
       <c r="L392" s="25"/>
       <c r="M392" s="26"/>
     </row>
-    <row r="393" spans="7:13">
+    <row r="393" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G393" s="20"/>
       <c r="H393" s="21"/>
       <c r="I393" s="22"/>
@@ -6221,7 +6231,7 @@
       <c r="L393" s="25"/>
       <c r="M393" s="26"/>
     </row>
-    <row r="394" spans="7:13">
+    <row r="394" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G394" s="20"/>
       <c r="H394" s="21"/>
       <c r="I394" s="22"/>
@@ -6230,7 +6240,7 @@
       <c r="L394" s="25"/>
       <c r="M394" s="26"/>
     </row>
-    <row r="395" spans="7:13">
+    <row r="395" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G395" s="20"/>
       <c r="H395" s="21"/>
       <c r="I395" s="22"/>
@@ -6239,7 +6249,7 @@
       <c r="L395" s="25"/>
       <c r="M395" s="26"/>
     </row>
-    <row r="396" spans="7:13">
+    <row r="396" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G396" s="20"/>
       <c r="H396" s="21"/>
       <c r="I396" s="22"/>
@@ -6248,7 +6258,7 @@
       <c r="L396" s="25"/>
       <c r="M396" s="26"/>
     </row>
-    <row r="397" spans="7:13">
+    <row r="397" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G397" s="20"/>
       <c r="H397" s="21"/>
       <c r="I397" s="22"/>
@@ -6257,7 +6267,7 @@
       <c r="L397" s="25"/>
       <c r="M397" s="26"/>
     </row>
-    <row r="398" spans="7:13">
+    <row r="398" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G398" s="20"/>
       <c r="H398" s="21"/>
       <c r="I398" s="22"/>
@@ -6266,7 +6276,7 @@
       <c r="L398" s="25"/>
       <c r="M398" s="26"/>
     </row>
-    <row r="399" spans="7:13">
+    <row r="399" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G399" s="20"/>
       <c r="H399" s="21"/>
       <c r="I399" s="22"/>
@@ -6275,7 +6285,7 @@
       <c r="L399" s="25"/>
       <c r="M399" s="26"/>
     </row>
-    <row r="400" spans="7:13">
+    <row r="400" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G400" s="20"/>
       <c r="H400" s="21"/>
       <c r="I400" s="22"/>
@@ -6284,7 +6294,7 @@
       <c r="L400" s="25"/>
       <c r="M400" s="26"/>
     </row>
-    <row r="401" spans="7:13">
+    <row r="401" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G401" s="20"/>
       <c r="H401" s="21"/>
       <c r="I401" s="22"/>
@@ -6293,7 +6303,7 @@
       <c r="L401" s="25"/>
       <c r="M401" s="26"/>
     </row>
-    <row r="402" spans="7:13">
+    <row r="402" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G402" s="20"/>
       <c r="H402" s="21"/>
       <c r="I402" s="22"/>
@@ -6302,7 +6312,7 @@
       <c r="L402" s="25"/>
       <c r="M402" s="26"/>
     </row>
-    <row r="403" spans="7:13">
+    <row r="403" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G403" s="20"/>
       <c r="H403" s="21"/>
       <c r="I403" s="22"/>
@@ -6311,7 +6321,7 @@
       <c r="L403" s="25"/>
       <c r="M403" s="26"/>
     </row>
-    <row r="404" spans="7:13">
+    <row r="404" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G404" s="20"/>
       <c r="H404" s="21"/>
       <c r="I404" s="22"/>
@@ -6320,7 +6330,7 @@
       <c r="L404" s="25"/>
       <c r="M404" s="26"/>
     </row>
-    <row r="405" spans="7:13">
+    <row r="405" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G405" s="20"/>
       <c r="H405" s="21"/>
       <c r="I405" s="22"/>
@@ -6329,7 +6339,7 @@
       <c r="L405" s="25"/>
       <c r="M405" s="26"/>
     </row>
-    <row r="406" spans="7:13">
+    <row r="406" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G406" s="20"/>
       <c r="H406" s="21"/>
       <c r="I406" s="22"/>
@@ -6338,7 +6348,7 @@
       <c r="L406" s="25"/>
       <c r="M406" s="26"/>
     </row>
-    <row r="407" spans="7:13">
+    <row r="407" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G407" s="20"/>
       <c r="H407" s="21"/>
       <c r="I407" s="22"/>
@@ -6347,7 +6357,7 @@
       <c r="L407" s="25"/>
       <c r="M407" s="26"/>
     </row>
-    <row r="408" spans="7:13">
+    <row r="408" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G408" s="20"/>
       <c r="H408" s="21"/>
       <c r="I408" s="22"/>
@@ -6356,7 +6366,7 @@
       <c r="L408" s="25"/>
       <c r="M408" s="26"/>
     </row>
-    <row r="409" spans="7:13">
+    <row r="409" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G409" s="20"/>
       <c r="H409" s="21"/>
       <c r="I409" s="22"/>
@@ -6365,7 +6375,7 @@
       <c r="L409" s="25"/>
       <c r="M409" s="26"/>
     </row>
-    <row r="410" spans="7:13">
+    <row r="410" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G410" s="20"/>
       <c r="H410" s="21"/>
       <c r="I410" s="22"/>
@@ -6374,7 +6384,7 @@
       <c r="L410" s="25"/>
       <c r="M410" s="26"/>
     </row>
-    <row r="411" spans="7:13">
+    <row r="411" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G411" s="20"/>
       <c r="H411" s="21"/>
       <c r="I411" s="22"/>
@@ -6383,7 +6393,7 @@
       <c r="L411" s="25"/>
       <c r="M411" s="26"/>
     </row>
-    <row r="412" spans="7:13">
+    <row r="412" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G412" s="20"/>
       <c r="H412" s="21"/>
       <c r="I412" s="22"/>
@@ -6392,7 +6402,7 @@
       <c r="L412" s="25"/>
       <c r="M412" s="26"/>
     </row>
-    <row r="413" spans="7:13">
+    <row r="413" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G413" s="20"/>
       <c r="H413" s="21"/>
       <c r="I413" s="22"/>
@@ -6401,7 +6411,7 @@
       <c r="L413" s="25"/>
       <c r="M413" s="26"/>
     </row>
-    <row r="414" spans="7:13">
+    <row r="414" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G414" s="20"/>
       <c r="H414" s="21"/>
       <c r="I414" s="22"/>
@@ -6410,7 +6420,7 @@
       <c r="L414" s="25"/>
       <c r="M414" s="26"/>
     </row>
-    <row r="415" spans="7:13">
+    <row r="415" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G415" s="20"/>
       <c r="H415" s="21"/>
       <c r="I415" s="22"/>
@@ -6419,7 +6429,7 @@
       <c r="L415" s="25"/>
       <c r="M415" s="26"/>
     </row>
-    <row r="416" spans="7:13">
+    <row r="416" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G416" s="20"/>
       <c r="H416" s="21"/>
       <c r="I416" s="22"/>
@@ -6428,7 +6438,7 @@
       <c r="L416" s="25"/>
       <c r="M416" s="26"/>
     </row>
-    <row r="417" spans="7:13">
+    <row r="417" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G417" s="20"/>
       <c r="H417" s="21"/>
       <c r="I417" s="22"/>
@@ -6437,7 +6447,7 @@
       <c r="L417" s="25"/>
       <c r="M417" s="26"/>
     </row>
-    <row r="418" spans="7:13">
+    <row r="418" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G418" s="20"/>
       <c r="H418" s="21"/>
       <c r="I418" s="22"/>
@@ -6446,7 +6456,7 @@
       <c r="L418" s="25"/>
       <c r="M418" s="26"/>
     </row>
-    <row r="419" spans="7:13">
+    <row r="419" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G419" s="20"/>
       <c r="H419" s="21"/>
       <c r="I419" s="22"/>
@@ -6455,7 +6465,7 @@
       <c r="L419" s="25"/>
       <c r="M419" s="26"/>
     </row>
-    <row r="420" spans="7:13">
+    <row r="420" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G420" s="20"/>
       <c r="H420" s="21"/>
       <c r="I420" s="22"/>
@@ -6464,7 +6474,7 @@
       <c r="L420" s="25"/>
       <c r="M420" s="26"/>
     </row>
-    <row r="421" spans="7:13">
+    <row r="421" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G421" s="20"/>
       <c r="H421" s="21"/>
       <c r="I421" s="22"/>
@@ -6473,7 +6483,7 @@
       <c r="L421" s="25"/>
       <c r="M421" s="26"/>
     </row>
-    <row r="422" spans="7:13">
+    <row r="422" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G422" s="20"/>
       <c r="H422" s="21"/>
       <c r="I422" s="22"/>
@@ -6482,7 +6492,7 @@
       <c r="L422" s="25"/>
       <c r="M422" s="26"/>
     </row>
-    <row r="423" spans="7:13">
+    <row r="423" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G423" s="20"/>
       <c r="H423" s="21"/>
       <c r="I423" s="22"/>
@@ -6491,7 +6501,7 @@
       <c r="L423" s="25"/>
       <c r="M423" s="26"/>
     </row>
-    <row r="424" spans="7:13">
+    <row r="424" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G424" s="20"/>
       <c r="H424" s="21"/>
       <c r="I424" s="22"/>
@@ -6500,7 +6510,7 @@
       <c r="L424" s="25"/>
       <c r="M424" s="26"/>
     </row>
-    <row r="425" spans="7:13">
+    <row r="425" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G425" s="20"/>
       <c r="H425" s="21"/>
       <c r="I425" s="22"/>
@@ -6509,7 +6519,7 @@
       <c r="L425" s="25"/>
       <c r="M425" s="26"/>
     </row>
-    <row r="426" spans="7:13">
+    <row r="426" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G426" s="20"/>
       <c r="H426" s="21"/>
       <c r="I426" s="22"/>
@@ -6518,7 +6528,7 @@
       <c r="L426" s="25"/>
       <c r="M426" s="26"/>
     </row>
-    <row r="427" spans="7:13">
+    <row r="427" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G427" s="20"/>
       <c r="H427" s="21"/>
       <c r="I427" s="22"/>
@@ -6527,7 +6537,7 @@
       <c r="L427" s="25"/>
       <c r="M427" s="26"/>
     </row>
-    <row r="428" spans="7:13">
+    <row r="428" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G428" s="20"/>
       <c r="H428" s="21"/>
       <c r="I428" s="22"/>
@@ -6536,7 +6546,7 @@
       <c r="L428" s="25"/>
       <c r="M428" s="26"/>
     </row>
-    <row r="429" spans="7:13">
+    <row r="429" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G429" s="20"/>
       <c r="H429" s="21"/>
       <c r="I429" s="22"/>
@@ -6545,7 +6555,7 @@
       <c r="L429" s="25"/>
       <c r="M429" s="26"/>
     </row>
-    <row r="430" spans="7:13">
+    <row r="430" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G430" s="20"/>
       <c r="H430" s="21"/>
       <c r="I430" s="22"/>
@@ -6554,7 +6564,7 @@
       <c r="L430" s="25"/>
       <c r="M430" s="26"/>
     </row>
-    <row r="431" spans="7:13">
+    <row r="431" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G431" s="20"/>
       <c r="H431" s="21"/>
       <c r="I431" s="22"/>
@@ -6563,7 +6573,7 @@
       <c r="L431" s="25"/>
       <c r="M431" s="26"/>
     </row>
-    <row r="432" spans="7:13">
+    <row r="432" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G432" s="20"/>
       <c r="H432" s="21"/>
       <c r="I432" s="22"/>
@@ -6572,7 +6582,7 @@
       <c r="L432" s="25"/>
       <c r="M432" s="26"/>
     </row>
-    <row r="433" spans="7:13">
+    <row r="433" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G433" s="20"/>
       <c r="H433" s="21"/>
       <c r="I433" s="22"/>
@@ -6581,7 +6591,7 @@
       <c r="L433" s="25"/>
       <c r="M433" s="26"/>
     </row>
-    <row r="434" spans="7:13">
+    <row r="434" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G434" s="20"/>
       <c r="H434" s="21"/>
       <c r="I434" s="22"/>
@@ -6590,7 +6600,7 @@
       <c r="L434" s="25"/>
       <c r="M434" s="26"/>
     </row>
-    <row r="435" spans="7:13">
+    <row r="435" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G435" s="20"/>
       <c r="H435" s="21"/>
       <c r="I435" s="22"/>
@@ -6599,7 +6609,7 @@
       <c r="L435" s="25"/>
       <c r="M435" s="26"/>
     </row>
-    <row r="436" spans="7:13">
+    <row r="436" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G436" s="20"/>
       <c r="H436" s="21"/>
       <c r="I436" s="22"/>
@@ -6608,7 +6618,7 @@
       <c r="L436" s="25"/>
       <c r="M436" s="26"/>
     </row>
-    <row r="437" spans="7:13">
+    <row r="437" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G437" s="20"/>
       <c r="H437" s="21"/>
       <c r="I437" s="22"/>
@@ -6617,7 +6627,7 @@
       <c r="L437" s="25"/>
       <c r="M437" s="26"/>
     </row>
-    <row r="438" spans="7:13">
+    <row r="438" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G438" s="20"/>
       <c r="H438" s="21"/>
       <c r="I438" s="22"/>
@@ -6626,7 +6636,7 @@
       <c r="L438" s="25"/>
       <c r="M438" s="26"/>
     </row>
-    <row r="439" spans="7:13">
+    <row r="439" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G439" s="20"/>
       <c r="H439" s="21"/>
       <c r="I439" s="22"/>
@@ -6635,7 +6645,7 @@
       <c r="L439" s="25"/>
       <c r="M439" s="26"/>
     </row>
-    <row r="440" spans="7:13">
+    <row r="440" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G440" s="20"/>
       <c r="H440" s="21"/>
       <c r="I440" s="22"/>
@@ -6644,7 +6654,7 @@
       <c r="L440" s="25"/>
       <c r="M440" s="26"/>
     </row>
-    <row r="441" spans="7:13">
+    <row r="441" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G441" s="20"/>
       <c r="H441" s="21"/>
       <c r="I441" s="22"/>
@@ -6653,7 +6663,7 @@
       <c r="L441" s="25"/>
       <c r="M441" s="26"/>
     </row>
-    <row r="442" spans="7:13">
+    <row r="442" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G442" s="20"/>
       <c r="H442" s="21"/>
       <c r="I442" s="22"/>
@@ -6662,7 +6672,7 @@
       <c r="L442" s="25"/>
       <c r="M442" s="26"/>
     </row>
-    <row r="443" spans="7:13">
+    <row r="443" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G443" s="20"/>
       <c r="H443" s="21"/>
       <c r="I443" s="22"/>
@@ -6671,7 +6681,7 @@
       <c r="L443" s="25"/>
       <c r="M443" s="26"/>
     </row>
-    <row r="444" spans="7:13">
+    <row r="444" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G444" s="20"/>
       <c r="H444" s="21"/>
       <c r="I444" s="22"/>
@@ -6680,7 +6690,7 @@
       <c r="L444" s="25"/>
       <c r="M444" s="26"/>
     </row>
-    <row r="445" spans="7:13">
+    <row r="445" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G445" s="20"/>
       <c r="H445" s="21"/>
       <c r="I445" s="22"/>
@@ -6689,7 +6699,7 @@
       <c r="L445" s="25"/>
       <c r="M445" s="26"/>
     </row>
-    <row r="446" spans="7:13">
+    <row r="446" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G446" s="20"/>
       <c r="H446" s="21"/>
       <c r="I446" s="22"/>
@@ -6698,7 +6708,7 @@
       <c r="L446" s="25"/>
       <c r="M446" s="26"/>
     </row>
-    <row r="447" spans="7:13">
+    <row r="447" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G447" s="20"/>
       <c r="H447" s="21"/>
       <c r="I447" s="22"/>
@@ -6707,7 +6717,7 @@
       <c r="L447" s="25"/>
       <c r="M447" s="26"/>
     </row>
-    <row r="448" spans="7:13">
+    <row r="448" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G448" s="20"/>
       <c r="H448" s="21"/>
       <c r="I448" s="22"/>
@@ -6716,7 +6726,7 @@
       <c r="L448" s="25"/>
       <c r="M448" s="26"/>
     </row>
-    <row r="449" spans="7:13">
+    <row r="449" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G449" s="20"/>
       <c r="H449" s="21"/>
       <c r="I449" s="22"/>
@@ -6725,7 +6735,7 @@
       <c r="L449" s="25"/>
       <c r="M449" s="26"/>
     </row>
-    <row r="450" spans="7:13">
+    <row r="450" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G450" s="20"/>
       <c r="H450" s="21"/>
       <c r="I450" s="22"/>
@@ -6734,7 +6744,7 @@
       <c r="L450" s="25"/>
       <c r="M450" s="26"/>
     </row>
-    <row r="451" spans="7:13">
+    <row r="451" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G451" s="20"/>
       <c r="H451" s="21"/>
       <c r="I451" s="22"/>
@@ -6743,7 +6753,7 @@
       <c r="L451" s="25"/>
       <c r="M451" s="26"/>
     </row>
-    <row r="452" spans="7:13">
+    <row r="452" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G452" s="20"/>
       <c r="H452" s="21"/>
       <c r="I452" s="22"/>
@@ -6752,7 +6762,7 @@
       <c r="L452" s="25"/>
       <c r="M452" s="26"/>
     </row>
-    <row r="453" spans="7:13">
+    <row r="453" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G453" s="20"/>
       <c r="H453" s="21"/>
       <c r="I453" s="22"/>
@@ -6761,7 +6771,7 @@
       <c r="L453" s="25"/>
       <c r="M453" s="26"/>
     </row>
-    <row r="454" spans="7:13">
+    <row r="454" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G454" s="20"/>
       <c r="H454" s="21"/>
       <c r="I454" s="22"/>
@@ -6770,7 +6780,7 @@
       <c r="L454" s="25"/>
       <c r="M454" s="26"/>
     </row>
-    <row r="455" spans="7:13">
+    <row r="455" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G455" s="20"/>
       <c r="H455" s="21"/>
       <c r="I455" s="22"/>
@@ -6779,7 +6789,7 @@
       <c r="L455" s="25"/>
       <c r="M455" s="26"/>
     </row>
-    <row r="456" spans="7:13">
+    <row r="456" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G456" s="20"/>
       <c r="H456" s="21"/>
       <c r="I456" s="22"/>
@@ -6788,7 +6798,7 @@
       <c r="L456" s="25"/>
       <c r="M456" s="26"/>
     </row>
-    <row r="457" spans="7:13">
+    <row r="457" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G457" s="20"/>
       <c r="H457" s="21"/>
       <c r="I457" s="22"/>
@@ -6797,7 +6807,7 @@
       <c r="L457" s="25"/>
       <c r="M457" s="26"/>
     </row>
-    <row r="458" spans="7:13">
+    <row r="458" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G458" s="20"/>
       <c r="H458" s="21"/>
       <c r="I458" s="22"/>
@@ -6806,7 +6816,7 @@
       <c r="L458" s="25"/>
       <c r="M458" s="26"/>
     </row>
-    <row r="459" spans="7:13">
+    <row r="459" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G459" s="20"/>
       <c r="H459" s="21"/>
       <c r="I459" s="22"/>
@@ -6815,7 +6825,7 @@
       <c r="L459" s="25"/>
       <c r="M459" s="26"/>
     </row>
-    <row r="460" spans="7:13">
+    <row r="460" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G460" s="20"/>
       <c r="H460" s="21"/>
       <c r="I460" s="22"/>
@@ -6824,7 +6834,7 @@
       <c r="L460" s="25"/>
       <c r="M460" s="26"/>
     </row>
-    <row r="461" spans="7:13">
+    <row r="461" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G461" s="20"/>
       <c r="H461" s="21"/>
       <c r="I461" s="22"/>
@@ -6833,7 +6843,7 @@
       <c r="L461" s="25"/>
       <c r="M461" s="26"/>
     </row>
-    <row r="462" spans="7:13">
+    <row r="462" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G462" s="20"/>
       <c r="H462" s="21"/>
       <c r="I462" s="22"/>
@@ -6842,7 +6852,7 @@
       <c r="L462" s="25"/>
       <c r="M462" s="26"/>
     </row>
-    <row r="463" spans="7:13">
+    <row r="463" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G463" s="20"/>
       <c r="H463" s="21"/>
       <c r="I463" s="22"/>
@@ -6851,7 +6861,7 @@
       <c r="L463" s="25"/>
       <c r="M463" s="26"/>
     </row>
-    <row r="464" spans="7:13">
+    <row r="464" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G464" s="20"/>
       <c r="H464" s="21"/>
       <c r="I464" s="22"/>
@@ -6860,7 +6870,7 @@
       <c r="L464" s="25"/>
       <c r="M464" s="26"/>
     </row>
-    <row r="465" spans="7:13">
+    <row r="465" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G465" s="20"/>
       <c r="H465" s="21"/>
       <c r="I465" s="22"/>
@@ -6869,7 +6879,7 @@
       <c r="L465" s="25"/>
       <c r="M465" s="26"/>
     </row>
-    <row r="466" spans="7:13">
+    <row r="466" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G466" s="20"/>
       <c r="H466" s="21"/>
       <c r="I466" s="22"/>
@@ -6878,7 +6888,7 @@
       <c r="L466" s="25"/>
       <c r="M466" s="26"/>
     </row>
-    <row r="467" spans="7:13">
+    <row r="467" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G467" s="20"/>
       <c r="H467" s="21"/>
       <c r="I467" s="22"/>
@@ -6887,7 +6897,7 @@
       <c r="L467" s="25"/>
       <c r="M467" s="26"/>
     </row>
-    <row r="468" spans="7:13">
+    <row r="468" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G468" s="20"/>
       <c r="H468" s="21"/>
       <c r="I468" s="22"/>
@@ -6896,7 +6906,7 @@
       <c r="L468" s="25"/>
       <c r="M468" s="26"/>
     </row>
-    <row r="469" spans="7:13">
+    <row r="469" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G469" s="20"/>
       <c r="H469" s="21"/>
       <c r="I469" s="22"/>
@@ -6905,7 +6915,7 @@
       <c r="L469" s="25"/>
       <c r="M469" s="26"/>
     </row>
-    <row r="470" spans="7:13">
+    <row r="470" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G470" s="20"/>
       <c r="H470" s="21"/>
       <c r="I470" s="22"/>
@@ -6914,7 +6924,7 @@
       <c r="L470" s="25"/>
       <c r="M470" s="26"/>
     </row>
-    <row r="471" spans="7:13">
+    <row r="471" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G471" s="20"/>
       <c r="H471" s="21"/>
       <c r="I471" s="22"/>
@@ -6923,7 +6933,7 @@
       <c r="L471" s="25"/>
       <c r="M471" s="26"/>
     </row>
-    <row r="472" spans="7:13">
+    <row r="472" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G472" s="20"/>
       <c r="H472" s="21"/>
       <c r="I472" s="22"/>
@@ -6932,7 +6942,7 @@
       <c r="L472" s="25"/>
       <c r="M472" s="26"/>
     </row>
-    <row r="473" spans="7:13">
+    <row r="473" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G473" s="20"/>
       <c r="H473" s="21"/>
       <c r="I473" s="22"/>
@@ -6941,7 +6951,7 @@
       <c r="L473" s="25"/>
       <c r="M473" s="26"/>
     </row>
-    <row r="474" spans="7:13">
+    <row r="474" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G474" s="20"/>
       <c r="H474" s="21"/>
       <c r="I474" s="22"/>
@@ -6950,7 +6960,7 @@
       <c r="L474" s="25"/>
       <c r="M474" s="26"/>
     </row>
-    <row r="475" spans="7:13">
+    <row r="475" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G475" s="20"/>
       <c r="H475" s="21"/>
       <c r="I475" s="22"/>
@@ -6959,7 +6969,7 @@
       <c r="L475" s="25"/>
       <c r="M475" s="26"/>
     </row>
-    <row r="476" spans="7:13">
+    <row r="476" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G476" s="20"/>
       <c r="H476" s="21"/>
       <c r="I476" s="22"/>
@@ -6968,7 +6978,7 @@
       <c r="L476" s="25"/>
       <c r="M476" s="26"/>
     </row>
-    <row r="477" spans="7:13">
+    <row r="477" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G477" s="20"/>
       <c r="H477" s="21"/>
       <c r="I477" s="22"/>
@@ -6977,7 +6987,7 @@
       <c r="L477" s="25"/>
       <c r="M477" s="26"/>
     </row>
-    <row r="478" spans="7:13">
+    <row r="478" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G478" s="20"/>
       <c r="H478" s="21"/>
       <c r="I478" s="22"/>
@@ -6986,7 +6996,7 @@
       <c r="L478" s="25"/>
       <c r="M478" s="26"/>
     </row>
-    <row r="479" spans="7:13">
+    <row r="479" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G479" s="20"/>
       <c r="H479" s="21"/>
       <c r="I479" s="22"/>
@@ -6995,7 +7005,7 @@
       <c r="L479" s="25"/>
       <c r="M479" s="26"/>
     </row>
-    <row r="480" spans="7:13">
+    <row r="480" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G480" s="20"/>
       <c r="H480" s="21"/>
       <c r="I480" s="22"/>
@@ -7004,7 +7014,7 @@
       <c r="L480" s="25"/>
       <c r="M480" s="26"/>
     </row>
-    <row r="481" spans="7:13">
+    <row r="481" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G481" s="20"/>
       <c r="H481" s="21"/>
       <c r="I481" s="22"/>
@@ -7013,7 +7023,7 @@
       <c r="L481" s="25"/>
       <c r="M481" s="26"/>
     </row>
-    <row r="482" spans="7:13">
+    <row r="482" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G482" s="20"/>
       <c r="H482" s="21"/>
       <c r="I482" s="22"/>
@@ -7022,7 +7032,7 @@
       <c r="L482" s="25"/>
       <c r="M482" s="26"/>
     </row>
-    <row r="483" spans="7:13">
+    <row r="483" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G483" s="20"/>
       <c r="H483" s="21"/>
       <c r="I483" s="22"/>
@@ -7031,7 +7041,7 @@
       <c r="L483" s="25"/>
       <c r="M483" s="26"/>
     </row>
-    <row r="484" spans="7:13">
+    <row r="484" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G484" s="20"/>
       <c r="H484" s="21"/>
       <c r="I484" s="22"/>
@@ -7040,7 +7050,7 @@
       <c r="L484" s="25"/>
       <c r="M484" s="26"/>
     </row>
-    <row r="485" spans="7:13">
+    <row r="485" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G485" s="20"/>
       <c r="H485" s="21"/>
       <c r="I485" s="22"/>
@@ -7049,7 +7059,7 @@
       <c r="L485" s="25"/>
       <c r="M485" s="26"/>
     </row>
-    <row r="486" spans="7:13">
+    <row r="486" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G486" s="20"/>
       <c r="H486" s="21"/>
       <c r="I486" s="22"/>
@@ -7058,7 +7068,7 @@
       <c r="L486" s="25"/>
       <c r="M486" s="26"/>
     </row>
-    <row r="487" spans="7:13">
+    <row r="487" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G487" s="20"/>
       <c r="H487" s="21"/>
       <c r="I487" s="22"/>
@@ -7067,7 +7077,7 @@
       <c r="L487" s="25"/>
       <c r="M487" s="26"/>
     </row>
-    <row r="488" spans="7:13">
+    <row r="488" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G488" s="20"/>
       <c r="H488" s="21"/>
       <c r="I488" s="22"/>
@@ -7076,7 +7086,7 @@
       <c r="L488" s="25"/>
       <c r="M488" s="26"/>
     </row>
-    <row r="489" spans="7:13">
+    <row r="489" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G489" s="20"/>
       <c r="H489" s="21"/>
       <c r="I489" s="22"/>
@@ -7085,7 +7095,7 @@
       <c r="L489" s="25"/>
       <c r="M489" s="26"/>
     </row>
-    <row r="490" spans="7:13">
+    <row r="490" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G490" s="20"/>
       <c r="H490" s="21"/>
       <c r="I490" s="22"/>
@@ -7094,7 +7104,7 @@
       <c r="L490" s="25"/>
       <c r="M490" s="26"/>
     </row>
-    <row r="491" spans="7:13">
+    <row r="491" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G491" s="20"/>
       <c r="H491" s="21"/>
       <c r="I491" s="22"/>
@@ -7103,7 +7113,7 @@
       <c r="L491" s="25"/>
       <c r="M491" s="26"/>
     </row>
-    <row r="492" spans="7:13">
+    <row r="492" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G492" s="20"/>
       <c r="H492" s="21"/>
       <c r="I492" s="22"/>
@@ -7112,7 +7122,7 @@
       <c r="L492" s="25"/>
       <c r="M492" s="26"/>
     </row>
-    <row r="493" spans="7:13">
+    <row r="493" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G493" s="20"/>
       <c r="H493" s="21"/>
       <c r="I493" s="22"/>
@@ -7121,7 +7131,7 @@
       <c r="L493" s="25"/>
       <c r="M493" s="26"/>
     </row>
-    <row r="494" spans="7:13">
+    <row r="494" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G494" s="20"/>
       <c r="H494" s="21"/>
       <c r="I494" s="22"/>
@@ -7130,7 +7140,7 @@
       <c r="L494" s="25"/>
       <c r="M494" s="26"/>
     </row>
-    <row r="495" spans="7:13">
+    <row r="495" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G495" s="20"/>
       <c r="H495" s="21"/>
       <c r="I495" s="22"/>
@@ -7139,7 +7149,7 @@
       <c r="L495" s="25"/>
       <c r="M495" s="26"/>
     </row>
-    <row r="496" spans="7:13">
+    <row r="496" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G496" s="20"/>
       <c r="H496" s="21"/>
       <c r="I496" s="22"/>
@@ -7148,7 +7158,7 @@
       <c r="L496" s="25"/>
       <c r="M496" s="26"/>
     </row>
-    <row r="497" spans="7:13">
+    <row r="497" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G497" s="20"/>
       <c r="H497" s="21"/>
       <c r="I497" s="22"/>
@@ -7157,7 +7167,7 @@
       <c r="L497" s="25"/>
       <c r="M497" s="26"/>
     </row>
-    <row r="498" spans="7:13">
+    <row r="498" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G498" s="20"/>
       <c r="H498" s="21"/>
       <c r="I498" s="22"/>
@@ -7166,7 +7176,7 @@
       <c r="L498" s="25"/>
       <c r="M498" s="26"/>
     </row>
-    <row r="499" spans="7:13">
+    <row r="499" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G499" s="20"/>
       <c r="H499" s="21"/>
       <c r="I499" s="22"/>
@@ -7175,7 +7185,7 @@
       <c r="L499" s="25"/>
       <c r="M499" s="26"/>
     </row>
-    <row r="500" spans="7:13">
+    <row r="500" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G500" s="20"/>
       <c r="H500" s="21"/>
       <c r="I500" s="22"/>
@@ -7184,7 +7194,7 @@
       <c r="L500" s="25"/>
       <c r="M500" s="26"/>
     </row>
-    <row r="501" spans="7:13">
+    <row r="501" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G501" s="20"/>
       <c r="H501" s="21"/>
       <c r="I501" s="22"/>
@@ -7193,7 +7203,7 @@
       <c r="L501" s="25"/>
       <c r="M501" s="26"/>
     </row>
-    <row r="502" spans="7:13">
+    <row r="502" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G502" s="20"/>
       <c r="H502" s="21"/>
       <c r="I502" s="22"/>
@@ -7202,7 +7212,7 @@
       <c r="L502" s="25"/>
       <c r="M502" s="26"/>
     </row>
-    <row r="503" spans="7:13">
+    <row r="503" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G503" s="20"/>
       <c r="H503" s="21"/>
       <c r="I503" s="22"/>
@@ -7211,7 +7221,7 @@
       <c r="L503" s="25"/>
       <c r="M503" s="26"/>
     </row>
-    <row r="504" spans="7:13">
+    <row r="504" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G504" s="20"/>
       <c r="H504" s="21"/>
       <c r="I504" s="22"/>
@@ -7220,7 +7230,7 @@
       <c r="L504" s="25"/>
       <c r="M504" s="26"/>
     </row>
-    <row r="505" spans="7:13">
+    <row r="505" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G505" s="20"/>
       <c r="H505" s="21"/>
       <c r="I505" s="22"/>
@@ -7229,7 +7239,7 @@
       <c r="L505" s="25"/>
       <c r="M505" s="26"/>
     </row>
-    <row r="506" spans="7:13">
+    <row r="506" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G506" s="20"/>
       <c r="H506" s="21"/>
       <c r="I506" s="22"/>
@@ -7238,7 +7248,7 @@
       <c r="L506" s="25"/>
       <c r="M506" s="26"/>
     </row>
-    <row r="507" spans="7:13">
+    <row r="507" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G507" s="20"/>
       <c r="H507" s="21"/>
       <c r="I507" s="22"/>
@@ -7247,7 +7257,7 @@
       <c r="L507" s="25"/>
       <c r="M507" s="26"/>
     </row>
-    <row r="508" spans="7:13">
+    <row r="508" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G508" s="20"/>
       <c r="H508" s="21"/>
       <c r="I508" s="22"/>
@@ -7256,7 +7266,7 @@
       <c r="L508" s="25"/>
       <c r="M508" s="26"/>
     </row>
-    <row r="509" spans="7:13">
+    <row r="509" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G509" s="20"/>
       <c r="H509" s="21"/>
       <c r="I509" s="22"/>
@@ -7265,7 +7275,7 @@
       <c r="L509" s="25"/>
       <c r="M509" s="26"/>
     </row>
-    <row r="510" spans="7:13">
+    <row r="510" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G510" s="20"/>
       <c r="H510" s="21"/>
       <c r="I510" s="22"/>
@@ -7274,7 +7284,7 @@
       <c r="L510" s="25"/>
       <c r="M510" s="26"/>
     </row>
-    <row r="511" spans="7:13">
+    <row r="511" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G511" s="20"/>
       <c r="H511" s="21"/>
       <c r="I511" s="22"/>
@@ -7283,7 +7293,7 @@
       <c r="L511" s="25"/>
       <c r="M511" s="26"/>
     </row>
-    <row r="512" spans="7:13">
+    <row r="512" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G512" s="20"/>
       <c r="H512" s="21"/>
       <c r="I512" s="22"/>
@@ -7292,7 +7302,7 @@
       <c r="L512" s="25"/>
       <c r="M512" s="26"/>
     </row>
-    <row r="513" spans="7:13">
+    <row r="513" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G513" s="20"/>
       <c r="H513" s="21"/>
       <c r="I513" s="22"/>
@@ -7301,7 +7311,7 @@
       <c r="L513" s="25"/>
       <c r="M513" s="26"/>
     </row>
-    <row r="514" spans="7:13">
+    <row r="514" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G514" s="20"/>
       <c r="H514" s="21"/>
       <c r="I514" s="22"/>
@@ -7310,7 +7320,7 @@
       <c r="L514" s="25"/>
       <c r="M514" s="26"/>
     </row>
-    <row r="515" spans="7:13">
+    <row r="515" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G515" s="20"/>
       <c r="H515" s="21"/>
       <c r="I515" s="22"/>
@@ -7319,7 +7329,7 @@
       <c r="L515" s="25"/>
       <c r="M515" s="26"/>
     </row>
-    <row r="516" spans="7:13">
+    <row r="516" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G516" s="20"/>
       <c r="H516" s="21"/>
       <c r="I516" s="22"/>
@@ -7328,7 +7338,7 @@
       <c r="L516" s="25"/>
       <c r="M516" s="26"/>
     </row>
-    <row r="517" spans="7:13">
+    <row r="517" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G517" s="20"/>
       <c r="H517" s="21"/>
       <c r="I517" s="22"/>
@@ -7337,7 +7347,7 @@
       <c r="L517" s="25"/>
       <c r="M517" s="26"/>
     </row>
-    <row r="518" spans="7:13">
+    <row r="518" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G518" s="20"/>
       <c r="H518" s="21"/>
       <c r="I518" s="22"/>
@@ -7346,7 +7356,7 @@
       <c r="L518" s="25"/>
       <c r="M518" s="26"/>
     </row>
-    <row r="519" spans="7:13">
+    <row r="519" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G519" s="20"/>
       <c r="H519" s="21"/>
       <c r="I519" s="22"/>
@@ -7355,7 +7365,7 @@
       <c r="L519" s="25"/>
       <c r="M519" s="26"/>
     </row>
-    <row r="520" spans="7:13">
+    <row r="520" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G520" s="20"/>
       <c r="H520" s="21"/>
       <c r="I520" s="22"/>
@@ -7364,7 +7374,7 @@
       <c r="L520" s="25"/>
       <c r="M520" s="26"/>
     </row>
-    <row r="521" spans="7:13">
+    <row r="521" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G521" s="20"/>
       <c r="H521" s="21"/>
       <c r="I521" s="22"/>
@@ -7373,7 +7383,7 @@
       <c r="L521" s="25"/>
       <c r="M521" s="26"/>
     </row>
-    <row r="522" spans="7:13">
+    <row r="522" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G522" s="20"/>
       <c r="H522" s="21"/>
       <c r="I522" s="22"/>
@@ -7382,7 +7392,7 @@
       <c r="L522" s="25"/>
       <c r="M522" s="26"/>
     </row>
-    <row r="523" spans="7:13">
+    <row r="523" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G523" s="20"/>
       <c r="H523" s="21"/>
       <c r="I523" s="22"/>
@@ -7391,7 +7401,7 @@
       <c r="L523" s="25"/>
       <c r="M523" s="26"/>
     </row>
-    <row r="524" spans="7:13">
+    <row r="524" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G524" s="20"/>
       <c r="H524" s="21"/>
       <c r="I524" s="22"/>
@@ -7400,7 +7410,7 @@
       <c r="L524" s="25"/>
       <c r="M524" s="26"/>
     </row>
-    <row r="525" spans="7:13">
+    <row r="525" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G525" s="20"/>
       <c r="H525" s="21"/>
       <c r="I525" s="22"/>
@@ -7409,7 +7419,7 @@
       <c r="L525" s="25"/>
       <c r="M525" s="26"/>
     </row>
-    <row r="526" spans="7:13">
+    <row r="526" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G526" s="20"/>
       <c r="H526" s="21"/>
       <c r="I526" s="22"/>
@@ -7418,7 +7428,7 @@
       <c r="L526" s="25"/>
       <c r="M526" s="26"/>
     </row>
-    <row r="527" spans="7:13">
+    <row r="527" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G527" s="20"/>
       <c r="H527" s="21"/>
       <c r="I527" s="22"/>
@@ -7427,7 +7437,7 @@
       <c r="L527" s="25"/>
       <c r="M527" s="26"/>
     </row>
-    <row r="528" spans="7:13">
+    <row r="528" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G528" s="20"/>
       <c r="H528" s="21"/>
       <c r="I528" s="22"/>
@@ -7436,7 +7446,7 @@
       <c r="L528" s="25"/>
       <c r="M528" s="26"/>
     </row>
-    <row r="529" spans="7:13">
+    <row r="529" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G529" s="20"/>
       <c r="H529" s="21"/>
       <c r="I529" s="22"/>
@@ -7445,7 +7455,7 @@
       <c r="L529" s="25"/>
       <c r="M529" s="26"/>
     </row>
-    <row r="530" spans="7:13">
+    <row r="530" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G530" s="20"/>
       <c r="H530" s="21"/>
       <c r="I530" s="22"/>
@@ -7454,7 +7464,7 @@
       <c r="L530" s="25"/>
       <c r="M530" s="26"/>
     </row>
-    <row r="531" spans="7:13">
+    <row r="531" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G531" s="20"/>
       <c r="H531" s="21"/>
       <c r="I531" s="22"/>
@@ -7463,7 +7473,7 @@
       <c r="L531" s="25"/>
       <c r="M531" s="26"/>
     </row>
-    <row r="532" spans="7:13">
+    <row r="532" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G532" s="20"/>
       <c r="H532" s="21"/>
       <c r="I532" s="22"/>
@@ -7472,7 +7482,7 @@
       <c r="L532" s="25"/>
       <c r="M532" s="26"/>
     </row>
-    <row r="533" spans="7:13">
+    <row r="533" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G533" s="20"/>
       <c r="H533" s="21"/>
       <c r="I533" s="22"/>
@@ -7481,7 +7491,7 @@
       <c r="L533" s="25"/>
       <c r="M533" s="26"/>
     </row>
-    <row r="534" spans="7:13">
+    <row r="534" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G534" s="20"/>
       <c r="H534" s="21"/>
       <c r="I534" s="22"/>
@@ -7490,7 +7500,7 @@
       <c r="L534" s="25"/>
       <c r="M534" s="26"/>
     </row>
-    <row r="535" spans="7:13">
+    <row r="535" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G535" s="20"/>
       <c r="H535" s="21"/>
       <c r="I535" s="22"/>
@@ -7499,7 +7509,7 @@
       <c r="L535" s="25"/>
       <c r="M535" s="26"/>
     </row>
-    <row r="536" spans="7:13">
+    <row r="536" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G536" s="20"/>
       <c r="H536" s="21"/>
       <c r="I536" s="22"/>
@@ -7508,7 +7518,7 @@
       <c r="L536" s="25"/>
       <c r="M536" s="26"/>
     </row>
-    <row r="537" spans="7:13">
+    <row r="537" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G537" s="20"/>
       <c r="H537" s="21"/>
       <c r="I537" s="22"/>
@@ -7517,7 +7527,7 @@
       <c r="L537" s="25"/>
       <c r="M537" s="26"/>
     </row>
-    <row r="538" spans="7:13">
+    <row r="538" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G538" s="20"/>
       <c r="H538" s="21"/>
       <c r="I538" s="22"/>
@@ -7526,7 +7536,7 @@
       <c r="L538" s="25"/>
       <c r="M538" s="26"/>
     </row>
-    <row r="539" spans="7:13">
+    <row r="539" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G539" s="20"/>
       <c r="H539" s="21"/>
       <c r="I539" s="22"/>
@@ -7535,7 +7545,7 @@
       <c r="L539" s="25"/>
       <c r="M539" s="26"/>
     </row>
-    <row r="540" spans="7:13">
+    <row r="540" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G540" s="20"/>
       <c r="H540" s="21"/>
       <c r="I540" s="22"/>
@@ -7544,7 +7554,7 @@
       <c r="L540" s="25"/>
       <c r="M540" s="26"/>
     </row>
-    <row r="541" spans="7:13">
+    <row r="541" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G541" s="20"/>
       <c r="H541" s="21"/>
       <c r="I541" s="22"/>
@@ -7553,7 +7563,7 @@
       <c r="L541" s="25"/>
       <c r="M541" s="26"/>
     </row>
-    <row r="542" spans="7:13">
+    <row r="542" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G542" s="20"/>
       <c r="H542" s="21"/>
       <c r="I542" s="22"/>
@@ -7562,7 +7572,7 @@
       <c r="L542" s="25"/>
       <c r="M542" s="26"/>
     </row>
-    <row r="543" spans="7:13">
+    <row r="543" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G543" s="20"/>
       <c r="H543" s="21"/>
       <c r="I543" s="22"/>
@@ -7571,7 +7581,7 @@
       <c r="L543" s="25"/>
       <c r="M543" s="26"/>
     </row>
-    <row r="544" spans="7:13">
+    <row r="544" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G544" s="20"/>
       <c r="H544" s="21"/>
       <c r="I544" s="22"/>
@@ -7580,7 +7590,7 @@
       <c r="L544" s="25"/>
       <c r="M544" s="26"/>
     </row>
-    <row r="545" spans="7:13">
+    <row r="545" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G545" s="20"/>
       <c r="H545" s="21"/>
       <c r="I545" s="22"/>
@@ -7589,7 +7599,7 @@
       <c r="L545" s="25"/>
       <c r="M545" s="26"/>
     </row>
-    <row r="546" spans="7:13">
+    <row r="546" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G546" s="20"/>
       <c r="H546" s="21"/>
       <c r="I546" s="22"/>
@@ -7598,7 +7608,7 @@
       <c r="L546" s="25"/>
       <c r="M546" s="26"/>
     </row>
-    <row r="547" spans="7:13">
+    <row r="547" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G547" s="20"/>
       <c r="H547" s="21"/>
       <c r="I547" s="22"/>
@@ -7607,7 +7617,7 @@
       <c r="L547" s="25"/>
       <c r="M547" s="26"/>
     </row>
-    <row r="548" spans="7:13">
+    <row r="548" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G548" s="20"/>
       <c r="H548" s="21"/>
       <c r="I548" s="22"/>
@@ -7616,7 +7626,7 @@
       <c r="L548" s="25"/>
       <c r="M548" s="26"/>
     </row>
-    <row r="549" spans="7:13">
+    <row r="549" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G549" s="20"/>
       <c r="H549" s="21"/>
       <c r="I549" s="22"/>
@@ -7625,7 +7635,7 @@
       <c r="L549" s="25"/>
       <c r="M549" s="26"/>
     </row>
-    <row r="550" spans="7:13">
+    <row r="550" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G550" s="20"/>
       <c r="H550" s="21"/>
       <c r="I550" s="22"/>
@@ -7634,7 +7644,7 @@
       <c r="L550" s="25"/>
       <c r="M550" s="26"/>
     </row>
-    <row r="551" spans="7:13">
+    <row r="551" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G551" s="20"/>
       <c r="H551" s="21"/>
       <c r="I551" s="22"/>
@@ -7643,7 +7653,7 @@
       <c r="L551" s="25"/>
       <c r="M551" s="26"/>
     </row>
-    <row r="552" spans="7:13">
+    <row r="552" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G552" s="20"/>
       <c r="H552" s="21"/>
       <c r="I552" s="22"/>
@@ -7652,7 +7662,7 @@
       <c r="L552" s="25"/>
       <c r="M552" s="26"/>
     </row>
-    <row r="553" spans="7:13">
+    <row r="553" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G553" s="20"/>
       <c r="H553" s="21"/>
       <c r="I553" s="22"/>
@@ -7661,7 +7671,7 @@
       <c r="L553" s="25"/>
       <c r="M553" s="26"/>
     </row>
-    <row r="554" spans="7:13">
+    <row r="554" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G554" s="20"/>
       <c r="H554" s="21"/>
       <c r="I554" s="22"/>
@@ -7670,7 +7680,7 @@
       <c r="L554" s="25"/>
       <c r="M554" s="26"/>
     </row>
-    <row r="555" spans="7:13">
+    <row r="555" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G555" s="20"/>
       <c r="H555" s="21"/>
       <c r="I555" s="22"/>
@@ -7679,7 +7689,7 @@
       <c r="L555" s="25"/>
       <c r="M555" s="26"/>
     </row>
-    <row r="556" spans="7:13">
+    <row r="556" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G556" s="20"/>
       <c r="H556" s="21"/>
       <c r="I556" s="22"/>
@@ -7688,7 +7698,7 @@
       <c r="L556" s="25"/>
       <c r="M556" s="26"/>
     </row>
-    <row r="557" spans="7:13">
+    <row r="557" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G557" s="20"/>
       <c r="H557" s="21"/>
       <c r="I557" s="22"/>
@@ -7697,7 +7707,7 @@
       <c r="L557" s="25"/>
       <c r="M557" s="26"/>
     </row>
-    <row r="558" spans="7:13">
+    <row r="558" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G558" s="20"/>
       <c r="H558" s="21"/>
       <c r="I558" s="22"/>
@@ -7706,7 +7716,7 @@
       <c r="L558" s="25"/>
       <c r="M558" s="26"/>
     </row>
-    <row r="559" spans="7:13">
+    <row r="559" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G559" s="20"/>
       <c r="H559" s="21"/>
       <c r="I559" s="22"/>
@@ -7715,7 +7725,7 @@
       <c r="L559" s="25"/>
       <c r="M559" s="26"/>
     </row>
-    <row r="560" spans="7:13">
+    <row r="560" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G560" s="20"/>
       <c r="H560" s="21"/>
       <c r="I560" s="22"/>
@@ -7724,7 +7734,7 @@
       <c r="L560" s="25"/>
       <c r="M560" s="26"/>
     </row>
-    <row r="561" spans="7:13">
+    <row r="561" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G561" s="20"/>
       <c r="H561" s="21"/>
       <c r="I561" s="22"/>
@@ -7733,7 +7743,7 @@
       <c r="L561" s="25"/>
       <c r="M561" s="26"/>
     </row>
-    <row r="562" spans="7:13">
+    <row r="562" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G562" s="20"/>
       <c r="H562" s="21"/>
       <c r="I562" s="22"/>
@@ -7742,7 +7752,7 @@
       <c r="L562" s="25"/>
       <c r="M562" s="26"/>
     </row>
-    <row r="563" spans="7:13">
+    <row r="563" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G563" s="20"/>
       <c r="H563" s="21"/>
       <c r="I563" s="22"/>
@@ -7751,7 +7761,7 @@
       <c r="L563" s="25"/>
       <c r="M563" s="26"/>
     </row>
-    <row r="564" spans="7:13">
+    <row r="564" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G564" s="20"/>
       <c r="H564" s="21"/>
       <c r="I564" s="22"/>
@@ -7760,7 +7770,7 @@
       <c r="L564" s="25"/>
       <c r="M564" s="26"/>
     </row>
-    <row r="565" spans="7:13">
+    <row r="565" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G565" s="20"/>
       <c r="H565" s="21"/>
       <c r="I565" s="22"/>
@@ -7769,7 +7779,7 @@
       <c r="L565" s="25"/>
       <c r="M565" s="26"/>
     </row>
-    <row r="566" spans="7:13">
+    <row r="566" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G566" s="20"/>
       <c r="H566" s="21"/>
       <c r="I566" s="22"/>
@@ -7778,7 +7788,7 @@
       <c r="L566" s="25"/>
       <c r="M566" s="26"/>
     </row>
-    <row r="567" spans="7:13">
+    <row r="567" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G567" s="20"/>
       <c r="H567" s="21"/>
       <c r="I567" s="22"/>
@@ -7787,7 +7797,7 @@
       <c r="L567" s="25"/>
       <c r="M567" s="26"/>
     </row>
-    <row r="568" spans="7:13">
+    <row r="568" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G568" s="20"/>
       <c r="H568" s="21"/>
       <c r="I568" s="22"/>
@@ -7796,7 +7806,7 @@
       <c r="L568" s="25"/>
       <c r="M568" s="26"/>
     </row>
-    <row r="569" spans="7:13">
+    <row r="569" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G569" s="20"/>
       <c r="H569" s="21"/>
       <c r="I569" s="22"/>
@@ -7805,7 +7815,7 @@
       <c r="L569" s="25"/>
       <c r="M569" s="26"/>
     </row>
-    <row r="570" spans="7:13">
+    <row r="570" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G570" s="20"/>
       <c r="H570" s="21"/>
       <c r="I570" s="22"/>
@@ -7814,7 +7824,7 @@
       <c r="L570" s="25"/>
       <c r="M570" s="26"/>
     </row>
-    <row r="571" spans="7:13">
+    <row r="571" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G571" s="20"/>
       <c r="H571" s="21"/>
       <c r="I571" s="22"/>
@@ -7823,7 +7833,7 @@
       <c r="L571" s="25"/>
       <c r="M571" s="26"/>
     </row>
-    <row r="572" spans="7:13">
+    <row r="572" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G572" s="20"/>
       <c r="H572" s="21"/>
       <c r="I572" s="22"/>
@@ -7832,7 +7842,7 @@
       <c r="L572" s="25"/>
       <c r="M572" s="26"/>
     </row>
-    <row r="573" spans="7:13">
+    <row r="573" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G573" s="20"/>
       <c r="H573" s="21"/>
       <c r="I573" s="22"/>
@@ -7841,7 +7851,7 @@
       <c r="L573" s="25"/>
       <c r="M573" s="26"/>
     </row>
-    <row r="574" spans="7:13">
+    <row r="574" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G574" s="20"/>
       <c r="H574" s="21"/>
       <c r="I574" s="22"/>
@@ -7850,7 +7860,7 @@
       <c r="L574" s="25"/>
       <c r="M574" s="26"/>
     </row>
-    <row r="575" spans="7:13">
+    <row r="575" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G575" s="20"/>
       <c r="H575" s="21"/>
       <c r="I575" s="22"/>
@@ -7859,7 +7869,7 @@
       <c r="L575" s="25"/>
       <c r="M575" s="26"/>
     </row>
-    <row r="576" spans="7:13">
+    <row r="576" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G576" s="20"/>
       <c r="H576" s="21"/>
       <c r="I576" s="22"/>
@@ -7868,7 +7878,7 @@
       <c r="L576" s="25"/>
       <c r="M576" s="26"/>
     </row>
-    <row r="577" spans="7:13">
+    <row r="577" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G577" s="20"/>
       <c r="H577" s="21"/>
       <c r="I577" s="22"/>
@@ -7877,7 +7887,7 @@
       <c r="L577" s="25"/>
       <c r="M577" s="26"/>
     </row>
-    <row r="578" spans="7:13">
+    <row r="578" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G578" s="20"/>
       <c r="H578" s="21"/>
       <c r="I578" s="22"/>
@@ -7886,7 +7896,7 @@
       <c r="L578" s="25"/>
       <c r="M578" s="26"/>
     </row>
-    <row r="579" spans="7:13">
+    <row r="579" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G579" s="20"/>
       <c r="H579" s="21"/>
       <c r="I579" s="22"/>
@@ -7895,7 +7905,7 @@
       <c r="L579" s="25"/>
       <c r="M579" s="26"/>
     </row>
-    <row r="580" spans="7:13">
+    <row r="580" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G580" s="20"/>
       <c r="H580" s="21"/>
       <c r="I580" s="22"/>
@@ -7904,7 +7914,7 @@
       <c r="L580" s="25"/>
       <c r="M580" s="26"/>
     </row>
-    <row r="581" spans="7:13">
+    <row r="581" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G581" s="20"/>
       <c r="H581" s="21"/>
       <c r="I581" s="22"/>
@@ -7913,7 +7923,7 @@
       <c r="L581" s="25"/>
       <c r="M581" s="26"/>
     </row>
-    <row r="582" spans="7:13">
+    <row r="582" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G582" s="20"/>
       <c r="H582" s="21"/>
       <c r="I582" s="22"/>
@@ -7922,7 +7932,7 @@
       <c r="L582" s="25"/>
       <c r="M582" s="26"/>
     </row>
-    <row r="583" spans="7:13">
+    <row r="583" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G583" s="20"/>
       <c r="H583" s="21"/>
       <c r="I583" s="22"/>
@@ -7931,7 +7941,7 @@
       <c r="L583" s="25"/>
       <c r="M583" s="26"/>
     </row>
-    <row r="584" spans="7:13">
+    <row r="584" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G584" s="20"/>
       <c r="H584" s="21"/>
       <c r="I584" s="22"/>
@@ -7940,7 +7950,7 @@
       <c r="L584" s="25"/>
       <c r="M584" s="26"/>
     </row>
-    <row r="585" spans="7:13">
+    <row r="585" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G585" s="20"/>
       <c r="H585" s="21"/>
       <c r="I585" s="22"/>
@@ -7949,7 +7959,7 @@
       <c r="L585" s="25"/>
       <c r="M585" s="26"/>
     </row>
-    <row r="586" spans="7:13">
+    <row r="586" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G586" s="20"/>
       <c r="H586" s="21"/>
       <c r="I586" s="22"/>
@@ -7958,7 +7968,7 @@
       <c r="L586" s="25"/>
       <c r="M586" s="26"/>
     </row>
-    <row r="587" spans="7:13">
+    <row r="587" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G587" s="20"/>
       <c r="H587" s="21"/>
       <c r="I587" s="22"/>
@@ -7967,7 +7977,7 @@
       <c r="L587" s="25"/>
       <c r="M587" s="26"/>
     </row>
-    <row r="588" spans="7:13">
+    <row r="588" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G588" s="20"/>
       <c r="H588" s="21"/>
       <c r="I588" s="22"/>
@@ -7976,7 +7986,7 @@
       <c r="L588" s="25"/>
       <c r="M588" s="26"/>
     </row>
-    <row r="589" spans="7:13">
+    <row r="589" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G589" s="20"/>
       <c r="H589" s="21"/>
       <c r="I589" s="22"/>
@@ -7985,7 +7995,7 @@
       <c r="L589" s="25"/>
       <c r="M589" s="26"/>
     </row>
-    <row r="590" spans="7:13">
+    <row r="590" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G590" s="20"/>
       <c r="H590" s="21"/>
       <c r="I590" s="22"/>
@@ -7994,7 +8004,7 @@
       <c r="L590" s="25"/>
       <c r="M590" s="26"/>
     </row>
-    <row r="591" spans="7:13">
+    <row r="591" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G591" s="20"/>
       <c r="H591" s="21"/>
       <c r="I591" s="22"/>
@@ -8003,7 +8013,7 @@
       <c r="L591" s="25"/>
       <c r="M591" s="26"/>
     </row>
-    <row r="592" spans="7:13">
+    <row r="592" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G592" s="20"/>
       <c r="H592" s="21"/>
       <c r="I592" s="22"/>
@@ -8012,7 +8022,7 @@
       <c r="L592" s="25"/>
       <c r="M592" s="26"/>
     </row>
-    <row r="593" spans="7:13">
+    <row r="593" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G593" s="20"/>
       <c r="H593" s="21"/>
       <c r="I593" s="22"/>
@@ -8021,7 +8031,7 @@
       <c r="L593" s="25"/>
       <c r="M593" s="26"/>
     </row>
-    <row r="594" spans="7:13">
+    <row r="594" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G594" s="20"/>
       <c r="H594" s="21"/>
       <c r="I594" s="22"/>
@@ -8030,7 +8040,7 @@
       <c r="L594" s="25"/>
       <c r="M594" s="26"/>
     </row>
-    <row r="595" spans="7:13">
+    <row r="595" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G595" s="20"/>
       <c r="H595" s="21"/>
       <c r="I595" s="22"/>
@@ -8039,7 +8049,7 @@
       <c r="L595" s="25"/>
       <c r="M595" s="26"/>
     </row>
-    <row r="596" spans="7:13">
+    <row r="596" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G596" s="20"/>
       <c r="H596" s="21"/>
       <c r="I596" s="22"/>
@@ -8048,7 +8058,7 @@
       <c r="L596" s="25"/>
       <c r="M596" s="26"/>
     </row>
-    <row r="597" spans="7:13">
+    <row r="597" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G597" s="20"/>
       <c r="H597" s="21"/>
       <c r="I597" s="22"/>
@@ -8057,7 +8067,7 @@
       <c r="L597" s="25"/>
       <c r="M597" s="26"/>
     </row>
-    <row r="598" spans="7:13">
+    <row r="598" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G598" s="20"/>
       <c r="H598" s="21"/>
       <c r="I598" s="22"/>
@@ -8066,7 +8076,7 @@
       <c r="L598" s="25"/>
       <c r="M598" s="26"/>
     </row>
-    <row r="599" spans="7:13">
+    <row r="599" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G599" s="20"/>
       <c r="H599" s="21"/>
       <c r="I599" s="22"/>
@@ -8075,7 +8085,7 @@
       <c r="L599" s="25"/>
       <c r="M599" s="26"/>
     </row>
-    <row r="600" spans="7:13">
+    <row r="600" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G600" s="20"/>
       <c r="H600" s="21"/>
       <c r="I600" s="22"/>
@@ -8084,7 +8094,7 @@
       <c r="L600" s="25"/>
       <c r="M600" s="26"/>
     </row>
-    <row r="601" spans="7:13">
+    <row r="601" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G601" s="20"/>
       <c r="H601" s="21"/>
       <c r="I601" s="22"/>
@@ -8093,7 +8103,7 @@
       <c r="L601" s="25"/>
       <c r="M601" s="26"/>
     </row>
-    <row r="602" spans="7:13">
+    <row r="602" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G602" s="20"/>
       <c r="H602" s="21"/>
       <c r="I602" s="22"/>
@@ -8102,7 +8112,7 @@
       <c r="L602" s="25"/>
       <c r="M602" s="26"/>
     </row>
-    <row r="603" spans="7:13">
+    <row r="603" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G603" s="20"/>
       <c r="H603" s="21"/>
       <c r="I603" s="22"/>
@@ -8111,7 +8121,7 @@
       <c r="L603" s="25"/>
       <c r="M603" s="26"/>
     </row>
-    <row r="604" spans="7:13">
+    <row r="604" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G604" s="20"/>
       <c r="H604" s="21"/>
       <c r="I604" s="22"/>
@@ -8120,7 +8130,7 @@
       <c r="L604" s="25"/>
       <c r="M604" s="26"/>
     </row>
-    <row r="605" spans="7:13">
+    <row r="605" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G605" s="20"/>
       <c r="H605" s="21"/>
       <c r="I605" s="22"/>
@@ -8129,7 +8139,7 @@
       <c r="L605" s="25"/>
       <c r="M605" s="26"/>
     </row>
-    <row r="606" spans="7:13">
+    <row r="606" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G606" s="20"/>
       <c r="H606" s="21"/>
       <c r="I606" s="22"/>
@@ -8138,7 +8148,7 @@
       <c r="L606" s="25"/>
       <c r="M606" s="26"/>
     </row>
-    <row r="607" spans="7:13">
+    <row r="607" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G607" s="20"/>
       <c r="H607" s="21"/>
       <c r="I607" s="22"/>
@@ -8147,7 +8157,7 @@
       <c r="L607" s="25"/>
       <c r="M607" s="26"/>
     </row>
-    <row r="608" spans="7:13">
+    <row r="608" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G608" s="20"/>
       <c r="H608" s="21"/>
       <c r="I608" s="22"/>
@@ -8156,7 +8166,7 @@
       <c r="L608" s="25"/>
       <c r="M608" s="26"/>
     </row>
-    <row r="609" spans="7:13">
+    <row r="609" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G609" s="20"/>
       <c r="H609" s="21"/>
       <c r="I609" s="22"/>
@@ -8165,7 +8175,7 @@
       <c r="L609" s="25"/>
       <c r="M609" s="26"/>
     </row>
-    <row r="610" spans="7:13">
+    <row r="610" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G610" s="20"/>
       <c r="H610" s="21"/>
       <c r="I610" s="22"/>
@@ -8174,7 +8184,7 @@
       <c r="L610" s="25"/>
       <c r="M610" s="26"/>
     </row>
-    <row r="611" spans="7:13">
+    <row r="611" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G611" s="20"/>
       <c r="H611" s="21"/>
       <c r="I611" s="22"/>
@@ -8183,7 +8193,7 @@
       <c r="L611" s="25"/>
       <c r="M611" s="26"/>
     </row>
-    <row r="612" spans="7:13">
+    <row r="612" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G612" s="20"/>
       <c r="H612" s="21"/>
       <c r="I612" s="22"/>
@@ -8192,7 +8202,7 @@
       <c r="L612" s="25"/>
       <c r="M612" s="26"/>
     </row>
-    <row r="613" spans="7:13">
+    <row r="613" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G613" s="20"/>
       <c r="H613" s="21"/>
       <c r="I613" s="22"/>
@@ -8201,7 +8211,7 @@
       <c r="L613" s="25"/>
       <c r="M613" s="26"/>
     </row>
-    <row r="614" spans="7:13">
+    <row r="614" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G614" s="20"/>
       <c r="H614" s="21"/>
       <c r="I614" s="22"/>
@@ -8210,7 +8220,7 @@
       <c r="L614" s="25"/>
       <c r="M614" s="26"/>
     </row>
-    <row r="615" spans="7:13">
+    <row r="615" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G615" s="20"/>
       <c r="H615" s="21"/>
       <c r="I615" s="22"/>
@@ -8219,7 +8229,7 @@
       <c r="L615" s="25"/>
       <c r="M615" s="26"/>
     </row>
-    <row r="616" spans="7:13">
+    <row r="616" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G616" s="20"/>
       <c r="H616" s="21"/>
       <c r="I616" s="22"/>
@@ -8228,7 +8238,7 @@
       <c r="L616" s="25"/>
       <c r="M616" s="26"/>
     </row>
-    <row r="617" spans="7:13">
+    <row r="617" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G617" s="20"/>
       <c r="H617" s="21"/>
       <c r="I617" s="22"/>
@@ -8237,7 +8247,7 @@
       <c r="L617" s="25"/>
       <c r="M617" s="26"/>
     </row>
-    <row r="618" spans="7:13">
+    <row r="618" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G618" s="20"/>
       <c r="H618" s="21"/>
       <c r="I618" s="22"/>
@@ -8246,7 +8256,7 @@
       <c r="L618" s="25"/>
       <c r="M618" s="26"/>
     </row>
-    <row r="619" spans="7:13">
+    <row r="619" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G619" s="20"/>
       <c r="H619" s="21"/>
       <c r="I619" s="22"/>
@@ -8255,7 +8265,7 @@
       <c r="L619" s="25"/>
       <c r="M619" s="26"/>
     </row>
-    <row r="620" spans="7:13">
+    <row r="620" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G620" s="20"/>
       <c r="H620" s="21"/>
       <c r="I620" s="22"/>
@@ -8264,7 +8274,7 @@
       <c r="L620" s="25"/>
       <c r="M620" s="26"/>
     </row>
-    <row r="621" spans="7:13">
+    <row r="621" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G621" s="20"/>
       <c r="H621" s="21"/>
       <c r="I621" s="22"/>
@@ -8273,7 +8283,7 @@
       <c r="L621" s="25"/>
       <c r="M621" s="26"/>
     </row>
-    <row r="622" spans="7:13">
+    <row r="622" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G622" s="20"/>
       <c r="H622" s="21"/>
       <c r="I622" s="22"/>
@@ -8282,7 +8292,7 @@
       <c r="L622" s="25"/>
       <c r="M622" s="26"/>
     </row>
-    <row r="623" spans="7:13">
+    <row r="623" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G623" s="20"/>
       <c r="H623" s="21"/>
       <c r="I623" s="22"/>
@@ -8291,7 +8301,7 @@
       <c r="L623" s="25"/>
       <c r="M623" s="26"/>
     </row>
-    <row r="624" spans="7:13">
+    <row r="624" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G624" s="20"/>
       <c r="H624" s="21"/>
       <c r="I624" s="22"/>
@@ -8300,7 +8310,7 @@
       <c r="L624" s="25"/>
       <c r="M624" s="26"/>
     </row>
-    <row r="625" spans="7:13">
+    <row r="625" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G625" s="20"/>
       <c r="H625" s="21"/>
       <c r="I625" s="22"/>
@@ -8309,7 +8319,7 @@
       <c r="L625" s="25"/>
       <c r="M625" s="26"/>
     </row>
-    <row r="626" spans="7:13">
+    <row r="626" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G626" s="20"/>
       <c r="H626" s="21"/>
       <c r="I626" s="22"/>
@@ -8318,7 +8328,7 @@
       <c r="L626" s="25"/>
       <c r="M626" s="26"/>
     </row>
-    <row r="627" spans="7:13">
+    <row r="627" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G627" s="20"/>
       <c r="H627" s="21"/>
       <c r="I627" s="22"/>
@@ -8327,7 +8337,7 @@
       <c r="L627" s="25"/>
       <c r="M627" s="26"/>
     </row>
-    <row r="628" spans="7:13">
+    <row r="628" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G628" s="20"/>
       <c r="H628" s="21"/>
       <c r="I628" s="22"/>
@@ -8336,7 +8346,7 @@
       <c r="L628" s="25"/>
       <c r="M628" s="26"/>
     </row>
-    <row r="629" spans="7:13">
+    <row r="629" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G629" s="20"/>
       <c r="H629" s="21"/>
       <c r="I629" s="22"/>
@@ -8345,7 +8355,7 @@
       <c r="L629" s="25"/>
       <c r="M629" s="26"/>
     </row>
-    <row r="630" spans="7:13">
+    <row r="630" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G630" s="20"/>
       <c r="H630" s="21"/>
       <c r="I630" s="22"/>
@@ -8354,7 +8364,7 @@
       <c r="L630" s="25"/>
       <c r="M630" s="26"/>
     </row>
-    <row r="631" spans="7:13">
+    <row r="631" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G631" s="20"/>
       <c r="H631" s="21"/>
       <c r="I631" s="22"/>
@@ -8363,7 +8373,7 @@
       <c r="L631" s="25"/>
       <c r="M631" s="26"/>
     </row>
-    <row r="632" spans="7:13">
+    <row r="632" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G632" s="20"/>
       <c r="H632" s="21"/>
       <c r="I632" s="22"/>
@@ -8372,7 +8382,7 @@
       <c r="L632" s="25"/>
       <c r="M632" s="26"/>
     </row>
-    <row r="633" spans="7:13">
+    <row r="633" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G633" s="20"/>
       <c r="H633" s="21"/>
       <c r="I633" s="22"/>
@@ -8381,7 +8391,7 @@
       <c r="L633" s="25"/>
       <c r="M633" s="26"/>
     </row>
-    <row r="634" spans="7:13">
+    <row r="634" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G634" s="20"/>
       <c r="H634" s="21"/>
       <c r="I634" s="22"/>
@@ -8390,7 +8400,7 @@
       <c r="L634" s="25"/>
       <c r="M634" s="26"/>
     </row>
-    <row r="635" spans="7:13">
+    <row r="635" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G635" s="20"/>
       <c r="H635" s="21"/>
       <c r="I635" s="22"/>
@@ -8399,7 +8409,7 @@
       <c r="L635" s="25"/>
       <c r="M635" s="26"/>
     </row>
-    <row r="636" spans="7:13">
+    <row r="636" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G636" s="20"/>
       <c r="H636" s="21"/>
       <c r="I636" s="22"/>
@@ -8408,7 +8418,7 @@
       <c r="L636" s="25"/>
       <c r="M636" s="26"/>
     </row>
-    <row r="637" spans="7:13">
+    <row r="637" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G637" s="20"/>
       <c r="H637" s="21"/>
       <c r="I637" s="22"/>
@@ -8417,7 +8427,7 @@
       <c r="L637" s="25"/>
       <c r="M637" s="26"/>
     </row>
-    <row r="638" spans="7:13">
+    <row r="638" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G638" s="20"/>
       <c r="H638" s="21"/>
       <c r="I638" s="22"/>
@@ -8426,7 +8436,7 @@
       <c r="L638" s="25"/>
       <c r="M638" s="26"/>
     </row>
-    <row r="639" spans="7:13">
+    <row r="639" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G639" s="20"/>
       <c r="H639" s="21"/>
       <c r="I639" s="22"/>
@@ -8435,7 +8445,7 @@
       <c r="L639" s="25"/>
       <c r="M639" s="26"/>
     </row>
-    <row r="640" spans="7:13">
+    <row r="640" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G640" s="20"/>
       <c r="H640" s="21"/>
       <c r="I640" s="22"/>
@@ -8444,7 +8454,7 @@
       <c r="L640" s="25"/>
       <c r="M640" s="26"/>
     </row>
-    <row r="641" spans="7:13">
+    <row r="641" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G641" s="20"/>
       <c r="H641" s="21"/>
       <c r="I641" s="22"/>
@@ -8453,7 +8463,7 @@
       <c r="L641" s="25"/>
       <c r="M641" s="26"/>
     </row>
-    <row r="642" spans="7:13">
+    <row r="642" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G642" s="20"/>
       <c r="H642" s="21"/>
       <c r="I642" s="22"/>
@@ -8462,7 +8472,7 @@
       <c r="L642" s="25"/>
       <c r="M642" s="26"/>
     </row>
-    <row r="643" spans="7:13">
+    <row r="643" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G643" s="20"/>
       <c r="H643" s="21"/>
       <c r="I643" s="22"/>
@@ -8471,7 +8481,7 @@
       <c r="L643" s="25"/>
       <c r="M643" s="26"/>
     </row>
-    <row r="644" spans="7:13">
+    <row r="644" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G644" s="20"/>
       <c r="H644" s="21"/>
       <c r="I644" s="22"/>
@@ -8480,7 +8490,7 @@
       <c r="L644" s="25"/>
       <c r="M644" s="26"/>
     </row>
-    <row r="645" spans="7:13">
+    <row r="645" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G645" s="20"/>
       <c r="H645" s="21"/>
       <c r="I645" s="22"/>
@@ -8489,7 +8499,7 @@
       <c r="L645" s="25"/>
       <c r="M645" s="26"/>
     </row>
-    <row r="646" spans="7:13">
+    <row r="646" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G646" s="20"/>
       <c r="H646" s="21"/>
       <c r="I646" s="22"/>
@@ -8498,7 +8508,7 @@
       <c r="L646" s="25"/>
       <c r="M646" s="26"/>
     </row>
-    <row r="647" spans="7:13">
+    <row r="647" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G647" s="20"/>
       <c r="H647" s="21"/>
       <c r="I647" s="22"/>
@@ -8507,7 +8517,7 @@
       <c r="L647" s="25"/>
       <c r="M647" s="26"/>
     </row>
-    <row r="648" spans="7:13">
+    <row r="648" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G648" s="20"/>
       <c r="H648" s="21"/>
       <c r="I648" s="22"/>
@@ -8516,7 +8526,7 @@
       <c r="L648" s="25"/>
       <c r="M648" s="26"/>
     </row>
-    <row r="649" spans="7:13">
+    <row r="649" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G649" s="20"/>
       <c r="H649" s="21"/>
       <c r="I649" s="22"/>
@@ -8525,7 +8535,7 @@
       <c r="L649" s="25"/>
       <c r="M649" s="26"/>
     </row>
-    <row r="650" spans="7:13">
+    <row r="650" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G650" s="20"/>
       <c r="H650" s="21"/>
       <c r="I650" s="22"/>
@@ -8534,7 +8544,7 @@
       <c r="L650" s="25"/>
       <c r="M650" s="26"/>
     </row>
-    <row r="651" spans="7:13">
+    <row r="651" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G651" s="20"/>
       <c r="H651" s="21"/>
       <c r="I651" s="22"/>
@@ -8543,7 +8553,7 @@
       <c r="L651" s="25"/>
       <c r="M651" s="26"/>
     </row>
-    <row r="652" spans="7:13">
+    <row r="652" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G652" s="20"/>
       <c r="H652" s="21"/>
       <c r="I652" s="22"/>
@@ -8552,7 +8562,7 @@
       <c r="L652" s="25"/>
       <c r="M652" s="26"/>
     </row>
-    <row r="653" spans="7:13">
+    <row r="653" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G653" s="20"/>
       <c r="H653" s="21"/>
       <c r="I653" s="22"/>
@@ -8561,7 +8571,7 @@
       <c r="L653" s="25"/>
       <c r="M653" s="26"/>
     </row>
-    <row r="654" spans="7:13">
+    <row r="654" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G654" s="20"/>
       <c r="H654" s="21"/>
       <c r="I654" s="22"/>
@@ -8570,7 +8580,7 @@
       <c r="L654" s="25"/>
       <c r="M654" s="26"/>
     </row>
-    <row r="655" spans="7:13">
+    <row r="655" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G655" s="20"/>
       <c r="H655" s="21"/>
       <c r="I655" s="22"/>
@@ -8579,7 +8589,7 @@
       <c r="L655" s="25"/>
       <c r="M655" s="26"/>
     </row>
-    <row r="656" spans="7:13">
+    <row r="656" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G656" s="20"/>
       <c r="H656" s="21"/>
       <c r="I656" s="22"/>
@@ -8588,7 +8598,7 @@
       <c r="L656" s="25"/>
       <c r="M656" s="26"/>
     </row>
-    <row r="657" spans="7:13">
+    <row r="657" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G657" s="20"/>
       <c r="H657" s="21"/>
       <c r="I657" s="22"/>
@@ -8597,7 +8607,7 @@
       <c r="L657" s="25"/>
       <c r="M657" s="26"/>
     </row>
-    <row r="658" spans="7:13">
+    <row r="658" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G658" s="20"/>
       <c r="H658" s="21"/>
       <c r="I658" s="22"/>
@@ -8606,7 +8616,7 @@
       <c r="L658" s="25"/>
       <c r="M658" s="26"/>
     </row>
-    <row r="659" spans="7:13">
+    <row r="659" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G659" s="20"/>
       <c r="H659" s="21"/>
       <c r="I659" s="22"/>
@@ -8615,7 +8625,7 @@
       <c r="L659" s="25"/>
       <c r="M659" s="26"/>
     </row>
-    <row r="660" spans="7:13">
+    <row r="660" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G660" s="20"/>
       <c r="H660" s="21"/>
       <c r="I660" s="22"/>
@@ -8624,7 +8634,7 @@
       <c r="L660" s="25"/>
       <c r="M660" s="26"/>
     </row>
-    <row r="661" spans="7:13">
+    <row r="661" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G661" s="20"/>
       <c r="H661" s="21"/>
       <c r="I661" s="22"/>
@@ -8633,7 +8643,7 @@
       <c r="L661" s="25"/>
       <c r="M661" s="26"/>
     </row>
-    <row r="662" spans="7:13">
+    <row r="662" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G662" s="20"/>
       <c r="H662" s="21"/>
       <c r="I662" s="22"/>
@@ -8642,7 +8652,7 @@
       <c r="L662" s="25"/>
       <c r="M662" s="26"/>
     </row>
-    <row r="663" spans="7:13">
+    <row r="663" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G663" s="20"/>
       <c r="H663" s="21"/>
       <c r="I663" s="22"/>
@@ -8651,7 +8661,7 @@
       <c r="L663" s="25"/>
       <c r="M663" s="26"/>
     </row>
-    <row r="664" spans="7:13">
+    <row r="664" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G664" s="20"/>
       <c r="H664" s="21"/>
       <c r="I664" s="22"/>
@@ -8660,7 +8670,7 @@
       <c r="L664" s="25"/>
       <c r="M664" s="26"/>
     </row>
-    <row r="665" spans="7:13">
+    <row r="665" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G665" s="20"/>
       <c r="H665" s="21"/>
       <c r="I665" s="22"/>
@@ -8669,7 +8679,7 @@
       <c r="L665" s="25"/>
       <c r="M665" s="26"/>
     </row>
-    <row r="666" spans="7:13">
+    <row r="666" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G666" s="20"/>
       <c r="H666" s="21"/>
       <c r="I666" s="22"/>
@@ -8678,7 +8688,7 @@
       <c r="L666" s="25"/>
       <c r="M666" s="26"/>
     </row>
-    <row r="667" spans="7:13">
+    <row r="667" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G667" s="20"/>
       <c r="H667" s="21"/>
       <c r="I667" s="22"/>
@@ -8687,7 +8697,7 @@
       <c r="L667" s="25"/>
       <c r="M667" s="26"/>
     </row>
-    <row r="668" spans="7:13">
+    <row r="668" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G668" s="20"/>
       <c r="H668" s="21"/>
       <c r="I668" s="22"/>
@@ -8696,7 +8706,7 @@
       <c r="L668" s="25"/>
       <c r="M668" s="26"/>
     </row>
-    <row r="669" spans="7:13">
+    <row r="669" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G669" s="20"/>
       <c r="H669" s="21"/>
       <c r="I669" s="22"/>
@@ -8705,7 +8715,7 @@
       <c r="L669" s="25"/>
       <c r="M669" s="26"/>
     </row>
-    <row r="670" spans="7:13">
+    <row r="670" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G670" s="20"/>
       <c r="H670" s="21"/>
       <c r="I670" s="22"/>
@@ -8714,7 +8724,7 @@
       <c r="L670" s="25"/>
       <c r="M670" s="26"/>
     </row>
-    <row r="671" spans="7:13">
+    <row r="671" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G671" s="20"/>
       <c r="H671" s="21"/>
       <c r="I671" s="22"/>
@@ -8723,7 +8733,7 @@
       <c r="L671" s="25"/>
       <c r="M671" s="26"/>
     </row>
-    <row r="672" spans="7:13">
+    <row r="672" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G672" s="20"/>
       <c r="H672" s="21"/>
       <c r="I672" s="22"/>
@@ -8732,7 +8742,7 @@
       <c r="L672" s="25"/>
       <c r="M672" s="26"/>
     </row>
-    <row r="673" spans="7:13">
+    <row r="673" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G673" s="20"/>
       <c r="H673" s="21"/>
       <c r="I673" s="22"/>
@@ -8741,7 +8751,7 @@
       <c r="L673" s="25"/>
       <c r="M673" s="26"/>
     </row>
-    <row r="674" spans="7:13">
+    <row r="674" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G674" s="20"/>
       <c r="H674" s="21"/>
       <c r="I674" s="22"/>
@@ -8750,7 +8760,7 @@
       <c r="L674" s="25"/>
       <c r="M674" s="26"/>
     </row>
-    <row r="675" spans="7:13">
+    <row r="675" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G675" s="20"/>
       <c r="H675" s="21"/>
       <c r="I675" s="22"/>
@@ -8759,7 +8769,7 @@
       <c r="L675" s="25"/>
       <c r="M675" s="26"/>
     </row>
-    <row r="676" spans="7:13">
+    <row r="676" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G676" s="20"/>
       <c r="H676" s="21"/>
       <c r="I676" s="22"/>
@@ -8768,7 +8778,7 @@
       <c r="L676" s="25"/>
       <c r="M676" s="26"/>
     </row>
-    <row r="677" spans="7:13">
+    <row r="677" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G677" s="20"/>
       <c r="H677" s="21"/>
       <c r="I677" s="22"/>
@@ -8777,7 +8787,7 @@
       <c r="L677" s="25"/>
       <c r="M677" s="26"/>
     </row>
-    <row r="678" spans="7:13">
+    <row r="678" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G678" s="20"/>
       <c r="H678" s="21"/>
       <c r="I678" s="22"/>
@@ -8786,7 +8796,7 @@
       <c r="L678" s="25"/>
       <c r="M678" s="26"/>
     </row>
-    <row r="679" spans="7:13">
+    <row r="679" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G679" s="20"/>
       <c r="H679" s="21"/>
       <c r="I679" s="22"/>
@@ -8795,7 +8805,7 @@
       <c r="L679" s="25"/>
       <c r="M679" s="26"/>
     </row>
-    <row r="680" spans="7:13">
+    <row r="680" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G680" s="20"/>
       <c r="H680" s="21"/>
       <c r="I680" s="22"/>
@@ -8804,7 +8814,7 @@
       <c r="L680" s="25"/>
       <c r="M680" s="26"/>
     </row>
-    <row r="681" spans="7:13">
+    <row r="681" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G681" s="20"/>
       <c r="H681" s="21"/>
       <c r="I681" s="22"/>
@@ -8813,7 +8823,7 @@
       <c r="L681" s="25"/>
       <c r="M681" s="26"/>
     </row>
-    <row r="682" spans="7:13">
+    <row r="682" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G682" s="20"/>
       <c r="H682" s="21"/>
       <c r="I682" s="22"/>
@@ -8822,7 +8832,7 @@
       <c r="L682" s="25"/>
       <c r="M682" s="26"/>
     </row>
-    <row r="683" spans="7:13">
+    <row r="683" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G683" s="20"/>
       <c r="H683" s="21"/>
       <c r="I683" s="22"/>
@@ -8831,7 +8841,7 @@
       <c r="L683" s="25"/>
       <c r="M683" s="26"/>
     </row>
-    <row r="684" spans="7:13">
+    <row r="684" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G684" s="20"/>
       <c r="H684" s="21"/>
       <c r="I684" s="22"/>
@@ -8840,7 +8850,7 @@
       <c r="L684" s="25"/>
       <c r="M684" s="26"/>
     </row>
-    <row r="685" spans="7:13">
+    <row r="685" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G685" s="20"/>
       <c r="H685" s="21"/>
       <c r="I685" s="22"/>
@@ -8849,7 +8859,7 @@
       <c r="L685" s="25"/>
       <c r="M685" s="26"/>
     </row>
-    <row r="686" spans="7:13">
+    <row r="686" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G686" s="20"/>
       <c r="H686" s="21"/>
       <c r="I686" s="22"/>
@@ -8858,7 +8868,7 @@
       <c r="L686" s="25"/>
       <c r="M686" s="26"/>
     </row>
-    <row r="687" spans="7:13">
+    <row r="687" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G687" s="20"/>
       <c r="H687" s="21"/>
       <c r="I687" s="22"/>
@@ -8867,7 +8877,7 @@
       <c r="L687" s="25"/>
       <c r="M687" s="26"/>
     </row>
-    <row r="688" spans="7:13">
+    <row r="688" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G688" s="20"/>
       <c r="H688" s="21"/>
       <c r="I688" s="22"/>
@@ -8876,7 +8886,7 @@
       <c r="L688" s="25"/>
       <c r="M688" s="26"/>
     </row>
-    <row r="689" spans="4:13">
+    <row r="689" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G689" s="20"/>
       <c r="H689" s="21"/>
       <c r="I689" s="22"/>
@@ -8885,7 +8895,7 @@
       <c r="L689" s="25"/>
       <c r="M689" s="26"/>
     </row>
-    <row r="690" spans="4:13">
+    <row r="690" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G690" s="20"/>
       <c r="H690" s="21"/>
       <c r="I690" s="22"/>
@@ -8894,7 +8904,7 @@
       <c r="L690" s="25"/>
       <c r="M690" s="26"/>
     </row>
-    <row r="691" spans="4:13">
+    <row r="691" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G691" s="20"/>
       <c r="H691" s="21"/>
       <c r="I691" s="22"/>
@@ -8903,7 +8913,7 @@
       <c r="L691" s="25"/>
       <c r="M691" s="26"/>
     </row>
-    <row r="692" spans="4:13">
+    <row r="692" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G692" s="20"/>
       <c r="H692" s="21"/>
       <c r="I692" s="22"/>
@@ -8912,7 +8922,7 @@
       <c r="L692" s="25"/>
       <c r="M692" s="26"/>
     </row>
-    <row r="694" spans="4:13">
+    <row r="694" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D694" s="28" t="s">
         <v>78</v>
       </c>
@@ -8921,6 +8931,9 @@
   <mergeCells count="1">
     <mergeCell ref="N5:O5"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D694" r:id="rId1" xr:uid="{EE67E2B5-0408-4DC6-BF41-F23333FBFB64}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{6D8CB493-6F11-44AA-BECA-6D8A503AA9FA}"/>
